--- a/GeoAiswebDB.xlsx
+++ b/GeoAiswebDB.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="291">
-  <si>
-    <t>08/03/2022 10:34:40</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="290">
+  <si>
+    <t>25/03/2022 15:39:25</t>
   </si>
   <si>
     <t>Frequency</t>
@@ -32,856 +32,853 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[GEOAISWEB] NDB - MELO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - CABO FRIO OPR COSTA DO SOL OPERADORA AEROPORTUARIA S/A</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - TROMBETAS COVERAGE 100NM; OPR MINERAÇÃO    RIO NORTE S/A</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - MAXARANGUAPE</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - ARAXÁ COVERAGE 50NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - NOVA COVERAGE 50NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - ITAIPU</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - CAMPINA GRANDE COVERAGE 60NMOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - TABATINGA COVERAGE 50NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - UBERABA COVERAGE 50NMOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - TIRIÓS COVERANGE 50NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - PASO DE LOS LIBRES OPR ARGENTINA</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - ITAITUBA OPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - ARAÇATUBA OPR TAM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - GUARATINGUETÁ COVERAGE 50NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - AMAPÁ COVERAGE 100NM.</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - URUGUAIANA COVERAGE 100NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - JAGUARUNA COVERAGE 30NM. Other HR TEL +55 (48) 3624-8801.</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - SANTO ÂNGELO OPR RIO SUL.</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - DOURA COVERAGE 70NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - BARBACENA COVERAGE 60NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - CALDAS NOVAS OPR CALDAS NOVAS CITY HALL</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - ALTAMIRA OPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - LAGOA SANTA COVERAGE 50NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - BACACHERI FM ARP, COVERAGE 50NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - PARACATU COVERAGE 65NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - TRAMANDAÍ OPR MAR</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - ILHÉUS COVERAGE 70NMOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - PIRASSUNUNGA COVERAGE 50NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - MONTES CLAROS COVERAGE 50NMOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - JOAO PESSOA Coverage 40NMOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - SAN MATIAS</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - RIBEIRÃO COVERAGE 50NMOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - AREALVA</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - OIAPOQUE COVERAGE 70NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - PONTA PORÃ OPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - URUCU OPR PETROBRAS</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - JACAREACANGA COVERAGE 75NMOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - BENTO OPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - CORUMBÁ</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - BAURU COVERAGE 50NMOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - PORTO SEGURO COVERAGE 27 NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - GUAJARÁ-MIRIM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - LETÍCIA OPR COLÔMBIA</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - PELADA COVERAGE 70NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - TUCA OPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - POÇOS COVERAGE 150NMOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - PAIOL OPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - MARÍLIA OPR PANTANAL LINHAS AÉREAS.</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - RIO PRETO OPR DAESP</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - TAUBATÉ COVERAGE 25NM; OPR COMANDO DO EXÉRCITO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] NDB - IPATINGA OPR ITUMBIARA</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - SANTA MARIA COMAER CH 57X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CAMPINAS VOR NO AVBL RDL 155/250DEGOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CRUZEIRO CH 57XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - MACAPÁ OPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - PETROLINA OPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - VILHENA CH 58XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - ALDEIA OPR COMANDO DA MARINHA; COVERAGE 80NM</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - FOZ CH 58X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - JACAREACANGA VOR NO AVBL SECT 280/290 AFT \n20NM BLW FL050 CH 59XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - PALMAS OPR INFRAERO CH 59X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - DOSUL CH 70X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - SANTARÉM OPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - GALEÃO CH 70X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - LONDRINA CH 71XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - MOSSORÓ CH 71XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - TAUBATÉ CH 73X OPR EXÉRCITO BRASILEIRO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - IMPERATRIZ CH 74XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - PORTO VELHO CH 74X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - FORMOSA CH74X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CAMPO GRANDE CH 75X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - TERESINA CH 76X OPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - TEFÉ CH 76XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - LUZIÂNIA CH 78X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - BOA VISTA CH 78X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - ALTAMIRA OPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - GARÇAS CH 80XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - PELOTAS CH 80XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - NORONHA CH 81X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - ALTA FLORESTA CH 81XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - FLORIANOPOLIS CH 81X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - PRUDENTE CH 82XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - SÃO LUÍS CH 82X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - SANTA CRUZ FM ARP CH 83X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CANOAS CH 83X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - MARABÁ CH 84XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - LAPA COVERAGE 75NM,VOR NO AVBL BTN RDL 070/080 CH 84XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CUIABÁ CH 84X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - PARINTINS CH 88X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CATARATAS OPR ARGENTINA</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - FORTALEZA</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - NATAL 358DEG MAG/0.42NM CH 90X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - MELO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - BARREIRAS CH 90X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - SANTANA CH 90X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CARAJÁS CH 91XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CONFINS CH 91X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - PORTO CH 93X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - FIGUEIRAS</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - MARICÁ CH 95X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - PIRAI VOR NO AVBL, BEYOND 40NM: \n SECT 010/025 BLW FL080;SECT 058/068 BLW FL050; SECT 272/282 BLW FL060;SECT 340/350 BLW FL110.  CH 97X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - JOINVILLE COVERAGE 40NM CH 98XOPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CACHIMBO CH 98X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - ZUMBI CH 98X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - SOROCABA CH 99X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - BAGÉ OPR INFRAERO U/S BTN RDL 275/305</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - SÃO JOSÉ CH 101X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CAJU CH 101X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - RIBEIRÃO PRETO CH 103X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - PIRASSUNUNGA CH 105X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - MANAUS 116º MAG/0,4NMCH 105X NO AVBLBTN RDL 105/245</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - MACAÉ OPR INFRAERO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - TRINIDAD-BL</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - ASUNCION VDVAS</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - GOIÂNIA</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - SÃO GONÇALO DO AMARANTE U/S BTN RDL 175/185</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CHAPECÓ OPR CITY HALL CH 108X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - UBERLÂNDIA OPR INFRAERO CH 108X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - BRAGANÇA CH 109X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - RIO BRANCO</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - VITÓRIA CH111X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CURITIBA CH 112X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - SALVADOR CH 12X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - SÃO GABRIEL DA CACHOEIRA CH 113X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - REDE CH 114X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - ALCÂNTARA CH 114XOPR DTCEA-SL</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - ANÁPOLIS CH 101X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - CONGONHAS CH 116X \nVOR/DME NO AVBL BEYOND 25NM: SECT 230/240 BLW FL050.</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - RECIFE</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - ARAXÁ</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - BELÉM 107° MAG/ 0,02NMCH 120X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - LETÍCIA OPR COLOMBIA</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - KUBITSCHEK CH 122X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - LA DIVINA PASTORA</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] VOR - BELO HORIZONTE OPR INFRAEROU/S BTN RDL 072 AND 082U/S BTN RDL 128 E 138U/S BTN RDL 202 AND 212</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SÃO LUIZ 6X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CAMPOS 24X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME -  28X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CAMPINA GRANDE 28X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CONGONHAS 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME -  30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BOA VISTA 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BELÉM 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BELO HORIZONTE 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BRASÍLIA 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CUIABÁ 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - NATAL 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PORTO VELHO 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - RIO BRANCO 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CARAJÁS 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - UBERLÂNDIA 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - VITÓRIA 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PONTA PELADA 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CURITIBA 30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME -  30X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - IMC 34X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CONFINS 34X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CACHIMBO 34X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SÃO GONÇALO 34X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - aeroporto de congonhas 34X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BRASÍLIA 36X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - FLORIANÓPOLIS 40X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME -  40X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CONFINS 40X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CAMPO GRANDE 40X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - EDUARDO GOMES 40X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - RECIFE 40X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SÃO JOSÉ DOS CAMPOS 40X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PORTO ALEGRE 40X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BRASÍLIA 40X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CURITIBA 40X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - GALEÃO 42X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - GUARULHOS 44X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - IPATINGA 46X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BRASÍLIA 46X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME -  46X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME -  48X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - JOINVILLE 48X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - ANÁPOLIS 48X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - GALEÃO 52X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME -  54X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BARBACENA 54X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - GUARULHOS 56X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME -  56X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SANTA MARIA 57X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CAMPINAS 57X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CRUZEIRO 57X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - MACAPÁ 57X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - ALDEIA 58X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PETROLINA 58X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - VILHENA 58X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - FOZ 58X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - JACAREACANGA 59X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PALMAS 59X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - DOSUL 70X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - GALEÃO 70X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - ALTO PARAÍSO DE GOIÁS 70X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SANTARÉM 70X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - LONDRINA 71X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - MOSSORÓ 71X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - DIAMANTINA 71X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - TAUBATÉ 73X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - IMPERATRIZ 74X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PORTO VELHO 74X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - FORMOSA 74X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CAMPO GRANDE 75X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - MARAGOGIPE 75X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - TEFÉ 76X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - TERESINA 76X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - IGARASSU 76X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - TAQUARA 76X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - TEÓFILO OTONI 76X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - REGISTRO 77X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BOA VISTA 78X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - LUZIÂNIA 78X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CALDAS NOVAS 79X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - GARÇAS 80X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PELOTAS 80X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - ALTA FLORESTA 81X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - NORONHA 81X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CURVELO 81X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - FLORIANOPOLIS 81X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PRUDENTE 82X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SÃO LUÍS 82X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SANTA CRUZ 83X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CANOAS 83X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CUIABÁ 84X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - MARABÁ 84X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - LAPA 84X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PARÁ DE MINAS 84X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - VITÓRIA DE SANTO ANTÃO 84X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CAMPO LARGO 85X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PORTO ALEGRE 87X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - ILHÉUS 87X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - JOÃO PESSOA 87X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PARINTINS 88X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PARANAGUÁ 88X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - FORTALEZA 88X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - GURUPI 89X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SETE LAGOAS 89X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BARREIRAS 90X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - NATAL 90X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SANTANA 90X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CARAJÁS 91X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CONFINS 91X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - TAQUARI 92X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PORTO 93X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - TRÊS MARIAS 94X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - FIGUEIRAS 94X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - MARICÁ 95X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PIRAI 97X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CACHIMBO 98X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - JOINVILLE 98X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - ZUMBI 98X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SOROCABA 99X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SÃO JOSÉ 101X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CAJU 101X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - RIBEIRÃO PRETO 103X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - PIRASSUNUNGA 105X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - MANAUS 105X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - MACAÉ 106X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - GOIANIA 106X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SÃO GONÇALO DO AMARANTE 106X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - UBERLÂNDIA 108X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CHAPECÓ 108X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BRAGANÇA 109X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - RIO BRANCO 111X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - VITÓRIA 111X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CURITIBA 112X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SALVADOR 112X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - SÃO GABRIEL DA CACHOEIRA 113X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - ALCÂNTARA 114X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - REDE 114X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - ANÁPOLIS 115X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - CONGONHAS 116X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - RECIFE 116X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - ARAXÁ 117X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BELÉM 120X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - LETÍCIA 122X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - KUBITSCHEK 122X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - LA DIVINA PASTORA 124X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - LAPA-PR 124X</t>
-  </si>
-  <si>
-    <t>[GEOAISWEB] DME - BELO HORIZONTE 124X</t>
+    <t>[AISG] NDB - MELO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - CABO FRIO OPR COSTA DO SOL OPERADORA AEROPORTUARIA S/A</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - TROMBETAS COVERAGE 100NM; OPR MINERAÇÃO    RIO NORTE S/A</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - MAXARANGUAPE</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - ARAXÁ COVERAGE 50NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - NOVA COVERAGE 50NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - ITAIPU</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - CAMPINA GRANDE COVERAGE 60NMOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - TABATINGA COVERAGE 50NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - UBERABA COVERAGE 50NMOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - TIRIÓS COVERANGE 50NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - PASO DE LOS LIBRES OPR ARGENTINA</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - ITAITUBA OPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - ARAÇATUBA OPR TAM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - GUARATINGUETÁ COVERAGE 50NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - AMAPÁ COVERAGE 100NM.</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - URUGUAIANA COVERAGE 100NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - JAGUARUNA COVERAGE 30NM. Other HR TEL +55 (48) 3624-8801.</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - SANTO ÂNGELO OPR RIO SUL.</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - DOURA COVERAGE 70NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - BARBACENA COVERAGE 60NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - CALDAS NOVAS OPR CALDAS NOVAS CITY HALL</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - ALTAMIRA OPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - LAGOA SANTA COVERAGE 50NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - BACACHERI FM ARP, COVERAGE 50NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - PARACATU COVERAGE 65NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - TRAMANDAÍ OPR MAR</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - ILHÉUS COVERAGE 70NMOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - PIRASSUNUNGA COVERAGE 50NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - MONTES CLAROS COVERAGE 50NMOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - JOAO PESSOA Coverage 40NMOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - SAN MATIAS</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - RIBEIRÃO COVERAGE 50NMOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - AREALVA</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - OIAPOQUE COVERAGE 70NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - PONTA PORÃ OPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - URUCU OPR PETROBRAS</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - JACAREACANGA COVERAGE 75NMOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - BENTO OPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - CORUMBÁ</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - BAURU COVERAGE 50NMOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - PORTO SEGURO COVERAGE 27 NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - GUAJARÁ-MIRIM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - LETÍCIA OPR COLÔMBIA</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - PELADA COVERAGE 70NM</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - TUCA OPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - PAIOL OPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - MARÍLIA OPR PANTANAL LINHAS AÉREAS.</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - RIO PRETO OPR DAESP</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - TAUBATÉ COVERAGE 25NM; OPR COMANDO DO EXÉRCITO</t>
+  </si>
+  <si>
+    <t>[AISG] NDB - IPATINGA OPR ITUMBIARA</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - SANTA MARIA COMAER CH 57X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - CRUZEIRO CH 57XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - MACAPÁ OPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - PETROLINA OPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - VILHENA CH 58XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - ALDEIA OPR COMANDO DA MARINHA; COVERAGE 80NM</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - FOZ CH 58X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - JACAREACANGA VOR NO AVBL SECT 280/290 AFT \n20NM BLW FL050 CH 59XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - PALMAS OPR INFRAERO CH 59X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - DOSUL CH 70X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - SANTARÉM OPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - GALEÃO CH 70X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - LONDRINA CH 71XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - MOSSORÓ CH 71XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - TAUBATÉ CH 73X OPR EXÉRCITO BRASILEIRO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - IMPERATRIZ CH 74XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - PORTO VELHO CH 74X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - FORMOSA CH74X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - CAMPO GRANDE CH 75X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - TERESINA CH 76X OPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - TEFÉ CH 76XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - LUZIÂNIA CH 78X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - BOA VISTA CH 78X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - ALTAMIRA OPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - GARÇAS CH 80XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - PELOTAS CH 80XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - NORONHA CH 81X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - ALTA FLORESTA CH 81XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - FLORIANOPOLIS CH 81X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - PRUDENTE CH 82XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - SÃO LUÍS CH 82X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - SANTA CRUZ FM ARP CH 83X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - CANOAS CH 83X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - MARABÁ CH 84XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - LAPA COVERAGE 75NM,VOR NO AVBL BTN RDL 070/080 CH 84XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - CUIABÁ CH 84X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - PARINTINS CH 88X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - CATARATAS OPR ARGENTINA</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - FORTALEZA</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - NATAL 358DEG MAG/0.42NM CH 90X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - MELO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - BARREIRAS CH 90X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - SANTANA CH 90X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - CARAJÁS CH 91XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - CONFINS CH 91X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - PORTO CH 93X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - FIGUEIRAS</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - MARICÁ CH 95X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - PIRAI VOR NO AVBL, BEYOND 40NM: \n SECT 010/025 BLW FL080;SECT 058/068 BLW FL050; SECT 272/282 BLW FL060;SECT 340/350 BLW FL110.  CH 97X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - JOINVILLE COVERAGE 40NM CH 98XOPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - CACHIMBO CH 98X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - ZUMBI CH 98X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - SOROCABA CH 99X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - BAGÉ OPR INFRAERO U/S BTN RDL 275/305</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - SÃO JOSÉ CH 101X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - CAJU CH 101X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - RIBEIRÃO PRETO CH 103X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - PIRASSUNUNGA CH 105X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - MANAUS 116º MAG/0,4NMCH 105X NO AVBLBTN RDL 105/245</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - MACAÉ OPR INFRAERO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - TRINIDAD-BL</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - ASUNCION VDVAS</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - GOIÂNIA</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - SÃO GONÇALO DO AMARANTE U/S BTN RDL 175/185</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - CHAPECÓ OPR CITY HALL CH 108X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - UBERLÂNDIA OPR INFRAERO CH 108X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - BRAGANÇA CH 109X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - RIO BRANCO</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - VITÓRIA CH111X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - CURITIBA CH 112X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - SALVADOR CH 12X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - SÃO GABRIEL DA CACHOEIRA CH 113X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - REDE CH 114X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - ALCÂNTARA CH 114XOPR DTCEA-SL</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - ANÁPOLIS CH 101X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - CONGONHAS CH 116X \nVOR/DME NO AVBL BEYOND 25NM: SECT 230/240 BLW FL050.</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - RECIFE</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - ARAXÁ</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - BELÉM 107° MAG/ 0,02NMCH 120X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - LETÍCIA OPR COLOMBIA</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - KUBITSCHEK CH 122X</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - LA DIVINA PASTORA</t>
+  </si>
+  <si>
+    <t>[AISG] VOR - BELO HORIZONTE OPR INFRAEROU/S BTN RDL 072 AND 082U/S BTN RDL 128 E 138U/S BTN RDL 202 AND 212</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SÃO LUIZ 6X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CAMPOS 24X</t>
+  </si>
+  <si>
+    <t>[AISG] DME -  28X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CAMPINA GRANDE 28X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CONGONHAS 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME -  30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BOA VISTA 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BELÉM 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BELO HORIZONTE 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BRASÍLIA 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CUIABÁ 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - NATAL 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PORTO VELHO 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - RIO BRANCO 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CARAJÁS 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - UBERLÂNDIA 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - VITÓRIA 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PONTA PELADA 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CURITIBA 30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME -  30X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - IMC 34X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CONFINS 34X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CACHIMBO 34X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SÃO GONÇALO 34X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - aeroporto de congonhas 34X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BRASÍLIA 36X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - FLORIANÓPOLIS 40X</t>
+  </si>
+  <si>
+    <t>[AISG] DME -  40X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CONFINS 40X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CAMPO GRANDE 40X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - EDUARDO GOMES 40X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - RECIFE 40X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SÃO JOSÉ DOS CAMPOS 40X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PORTO ALEGRE 40X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BRASÍLIA 40X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CURITIBA 40X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - GALEÃO 42X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - GUARULHOS 44X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - IPATINGA 46X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BRASÍLIA 46X</t>
+  </si>
+  <si>
+    <t>[AISG] DME -  46X</t>
+  </si>
+  <si>
+    <t>[AISG] DME -  48X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - JOINVILLE 48X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - ANÁPOLIS 48X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - GALEÃO 52X</t>
+  </si>
+  <si>
+    <t>[AISG] DME -  54X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BARBACENA 54X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - GUARULHOS 56X</t>
+  </si>
+  <si>
+    <t>[AISG] DME -  56X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SANTA MARIA 57X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CAMPINAS 57X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CRUZEIRO 57X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - MACAPÁ 57X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - ALDEIA 58X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PETROLINA 58X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - VILHENA 58X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - FOZ 58X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - JACAREACANGA 59X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PALMAS 59X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - DOSUL 70X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - ALTO PARAÍSO DE GOIÁS 70X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SANTARÉM 70X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - GALEÃO 70X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - LONDRINA 71X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - MOSSORÓ 71X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - DIAMANTINA 71X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - TAUBATÉ 73X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - IMPERATRIZ 74X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PORTO VELHO 74X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - FORMOSA 74X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CAMPO GRANDE 75X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - MARAGOGIPE 75X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - TEFÉ 76X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - TERESINA 76X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - IGARASSU 76X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - TAQUARA 76X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - TEÓFILO OTONI 76X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - REGISTRO 77X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BOA VISTA 78X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - LUZIÂNIA 78X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CALDAS NOVAS 79X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - GARÇAS 80X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PELOTAS 80X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - ALTA FLORESTA 81X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - NORONHA 81X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CURVELO 81X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - FLORIANOPOLIS 81X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PRUDENTE 82X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SÃO LUÍS 82X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SANTA CRUZ 83X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CANOAS 83X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - MARABÁ 84X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - LAPA 84X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PARÁ DE MINAS 84X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CUIABÁ 84X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - VITÓRIA DE SANTO ANTÃO 84X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BIGUAÇU 84X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CAMPO LARGO 85X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PORTO ALEGRE 87X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - ILHÉUS 87X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - JOÃO PESSOA 87X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PARINTINS 88X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - FORTALEZA 88X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PARANAGUÁ 88X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - GURUPI 89X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SETE LAGOAS 89X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BARREIRAS 90X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - NATAL 90X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SANTANA 90X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CARAJÁS 91X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CONFINS 91X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - TAQUARI 92X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PORTO 93X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - TRÊS MARIAS 94X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - FIGUEIRAS 94X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - MARICÁ 95X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PIRAI 97X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CACHIMBO 98X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - JOINVILLE 98X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - ZUMBI 98X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SOROCABA 99X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SÃO JOSÉ 101X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CAJU 101X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - RIBEIRÃO PRETO 103X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - PIRASSUNUNGA 105X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - MANAUS 105X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - MACAÉ 106X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - GOIANIA 106X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SÃO GONÇALO DO AMARANTE 106X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - UBERLÂNDIA 108X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CHAPECÓ 108X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BRAGANÇA 109X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - RIO BRANCO 111X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - VITÓRIA 111X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CURITIBA 112X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SALVADOR 112X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - SÃO GABRIEL DA CACHOEIRA 113X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - ALCÂNTARA 114X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - REDE 114X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - ANÁPOLIS 115X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - CONGONHAS 116X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - RECIFE 116X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - ARAXÁ 117X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BELÉM 120X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - LETÍCIA 122X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - KUBITSCHEK 122X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - LA DIVINA PASTORA 124X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - LAPA-PR 124X</t>
+  </si>
+  <si>
+    <t>[AISG] DME - BELO HORIZONTE 124X</t>
   </si>
   <si>
     <t>Service</t>
@@ -952,13 +949,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F287"/>
+  <dimension ref="A1:F286"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
     <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.42578125" customWidth="true"/>
-    <col min="4" max="4" width="147.140625" customWidth="true"/>
+    <col min="4" max="4" width="140.7109375" customWidth="true"/>
     <col min="5" max="5" width="7.5703125" customWidth="true"/>
     <col min="6" max="6" width="11.140625" customWidth="true"/>
   </cols>
@@ -977,10 +974,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2">
@@ -1908,10 +1905,10 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="B48" s="0">
-        <v>-21.836706161499023</v>
+        <v>-22.870107650756836</v>
       </c>
       <c r="C48" s="0">
-        <v>-46.565521240234375</v>
+        <v>-43.165119171142578</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>51</v>
@@ -1920,7 +1917,7 @@
         <v>108</v>
       </c>
       <c r="F48" s="0">
-        <v>699727480</v>
+        <v>699727294</v>
       </c>
     </row>
     <row r="49">
@@ -1928,10 +1925,10 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="B49" s="0">
-        <v>-22.870107650756836</v>
+        <v>-22.194833755493164</v>
       </c>
       <c r="C49" s="0">
-        <v>-43.165119171142578</v>
+        <v>-49.929332733154297</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>52</v>
@@ -1940,38 +1937,38 @@
         <v>108</v>
       </c>
       <c r="F49" s="0">
-        <v>699727294</v>
+        <v>689251793</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.41499999999999998</v>
+        <v>0.41999999999999998</v>
       </c>
       <c r="B50" s="0">
-        <v>-22.194833755493164</v>
+        <v>-20.813167572021484</v>
       </c>
       <c r="C50" s="0">
-        <v>-49.929332733154297</v>
+        <v>-49.406166076660156</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E50" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F50" s="0">
-        <v>689251793</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.41999999999999998</v>
+        <v>0.42999999999999999</v>
       </c>
       <c r="B51" s="0">
-        <v>-20.813167572021484</v>
+        <v>-23.045635223388672</v>
       </c>
       <c r="C51" s="0">
-        <v>-49.406166076660156</v>
+        <v>-45.516708374023438</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>54</v>
@@ -1985,13 +1982,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.42999999999999999</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="B52" s="0">
-        <v>-23.045635223388672</v>
+        <v>-19.46299934387207</v>
       </c>
       <c r="C52" s="0">
-        <v>-45.516708374023438</v>
+        <v>-42.479499816894531</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>55</v>
@@ -2005,13 +2002,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>1.6180000000000001</v>
+        <v>112</v>
       </c>
       <c r="B53" s="0">
-        <v>-19.46299934387207</v>
+        <v>-29.709760665893555</v>
       </c>
       <c r="C53" s="0">
-        <v>-42.479499816894531</v>
+        <v>-53.712741851806641</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>56</v>
@@ -2028,19 +2025,19 @@
         <v>112</v>
       </c>
       <c r="B54" s="0">
-        <v>-29.709760665893555</v>
+        <v>-7.6067962646484375</v>
       </c>
       <c r="C54" s="0">
-        <v>-53.712741851806641</v>
+        <v>-72.773468017578125</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>57</v>
       </c>
       <c r="E54" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F54" s="0">
-        <v>-1</v>
+        <v>1000842395</v>
       </c>
     </row>
     <row r="55">
@@ -2048,10 +2045,10 @@
         <v>112</v>
       </c>
       <c r="B55" s="0">
-        <v>-23.008716583251953</v>
+        <v>0.052246000617742538</v>
       </c>
       <c r="C55" s="0">
-        <v>-47.129047393798828</v>
+        <v>-51.073112487792969</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>58</v>
@@ -2060,18 +2057,18 @@
         <v>108</v>
       </c>
       <c r="F55" s="0">
-        <v>1000822742</v>
+        <v>1000822920</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>112</v>
+        <v>112.09999999999999</v>
       </c>
       <c r="B56" s="0">
-        <v>-7.6067962646484375</v>
+        <v>-9.3632612228393555</v>
       </c>
       <c r="C56" s="0">
-        <v>-72.773468017578125</v>
+        <v>-40.561576843261719</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>59</v>
@@ -2080,27 +2077,27 @@
         <v>108</v>
       </c>
       <c r="F56" s="0">
-        <v>1000842395</v>
+        <v>1000842573</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>112</v>
+        <v>112.09999999999999</v>
       </c>
       <c r="B57" s="0">
-        <v>0.052246000617742538</v>
+        <v>-12.69355583190918</v>
       </c>
       <c r="C57" s="0">
-        <v>-51.073112487792969</v>
+        <v>-60.095241546630859</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>60</v>
       </c>
       <c r="E57" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F57" s="0">
-        <v>1000822920</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
@@ -2108,19 +2105,19 @@
         <v>112.09999999999999</v>
       </c>
       <c r="B58" s="0">
-        <v>-9.3632612228393555</v>
+        <v>-22.812774658203125</v>
       </c>
       <c r="C58" s="0">
-        <v>-40.561576843261719</v>
+        <v>-42.095340728759766</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>61</v>
       </c>
       <c r="E58" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F58" s="0">
-        <v>1000842573</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
@@ -2128,10 +2125,10 @@
         <v>112.09999999999999</v>
       </c>
       <c r="B59" s="0">
-        <v>-12.69355583190918</v>
+        <v>-25.583202362060547</v>
       </c>
       <c r="C59" s="0">
-        <v>-60.095241546630859</v>
+        <v>-54.503513336181641</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>62</v>
@@ -2145,53 +2142,53 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>112.09999999999999</v>
+        <v>112.2</v>
       </c>
       <c r="B60" s="0">
-        <v>-22.812774658203125</v>
+        <v>-6.235743522644043</v>
       </c>
       <c r="C60" s="0">
-        <v>-42.095340728759766</v>
+        <v>-57.770526885986328</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E60" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F60" s="0">
-        <v>-1</v>
+        <v>1000842433</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>112.09999999999999</v>
+        <v>112.2</v>
       </c>
       <c r="B61" s="0">
-        <v>-25.583202362060547</v>
+        <v>-10.288018226623535</v>
       </c>
       <c r="C61" s="0">
-        <v>-54.503513336181641</v>
+        <v>-48.358531951904297</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F61" s="0">
-        <v>-1</v>
+        <v>1000822971</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="B62" s="0">
-        <v>-6.235743522644043</v>
+        <v>-29.19805908203125</v>
       </c>
       <c r="C62" s="0">
-        <v>-57.770526885986328</v>
+        <v>-51.188632965087891</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>65</v>
@@ -2200,18 +2197,18 @@
         <v>108</v>
       </c>
       <c r="F62" s="0">
-        <v>1000842433</v>
+        <v>692786104</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="B63" s="0">
-        <v>-10.288018226623535</v>
+        <v>-2.4264194965362549</v>
       </c>
       <c r="C63" s="0">
-        <v>-48.358531951904297</v>
+        <v>-54.817562103271484</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>66</v>
@@ -2220,7 +2217,7 @@
         <v>108</v>
       </c>
       <c r="F63" s="0">
-        <v>1000822971</v>
+        <v>1000823129</v>
       </c>
     </row>
     <row r="64">
@@ -2228,10 +2225,10 @@
         <v>112.3</v>
       </c>
       <c r="B64" s="0">
-        <v>-29.19805908203125</v>
+        <v>-22.817085266113281</v>
       </c>
       <c r="C64" s="0">
-        <v>-51.188632965087891</v>
+        <v>-43.260009765625</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>67</v>
@@ -2240,18 +2237,18 @@
         <v>108</v>
       </c>
       <c r="F64" s="0">
-        <v>692786104</v>
+        <v>1008242001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>112.3</v>
+        <v>112.40000000000001</v>
       </c>
       <c r="B65" s="0">
-        <v>-2.4264194965362549</v>
+        <v>-23.339515686035156</v>
       </c>
       <c r="C65" s="0">
-        <v>-54.817562103271484</v>
+        <v>-51.112525939941406</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>68</v>
@@ -2260,78 +2257,78 @@
         <v>108</v>
       </c>
       <c r="F65" s="0">
-        <v>1000823129</v>
+        <v>1000822874</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>112.3</v>
+        <v>112.40000000000001</v>
       </c>
       <c r="B66" s="0">
-        <v>-22.817085266113281</v>
+        <v>-5.1972999572753906</v>
       </c>
       <c r="C66" s="0">
-        <v>-43.260009765625</v>
+        <v>-37.364444732666016</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>69</v>
       </c>
       <c r="E66" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F66" s="0">
-        <v>1008242001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>112.40000000000001</v>
+        <v>112.59999999999999</v>
       </c>
       <c r="B67" s="0">
-        <v>-23.339515686035156</v>
+        <v>-23.035707473754883</v>
       </c>
       <c r="C67" s="0">
-        <v>-51.112525939941406</v>
+        <v>-45.512535095214844</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>70</v>
       </c>
       <c r="E67" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F67" s="0">
-        <v>1000822874</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>112.40000000000001</v>
+        <v>112.7</v>
       </c>
       <c r="B68" s="0">
-        <v>-5.1972999572753906</v>
+        <v>-5.5238885879516602</v>
       </c>
       <c r="C68" s="0">
-        <v>-37.364444732666016</v>
+        <v>-47.449844360351563</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>71</v>
       </c>
       <c r="E68" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F68" s="0">
-        <v>-1</v>
+        <v>1000842417</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>112.59999999999999</v>
+        <v>112.7</v>
       </c>
       <c r="B69" s="0">
-        <v>-23.035707473754883</v>
+        <v>-8.714024543762207</v>
       </c>
       <c r="C69" s="0">
-        <v>-45.512535095214844</v>
+        <v>-63.903472900390625</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>72</v>
@@ -2348,30 +2345,30 @@
         <v>112.7</v>
       </c>
       <c r="B70" s="0">
-        <v>-5.5238885879516602</v>
+        <v>-15.555699348449707</v>
       </c>
       <c r="C70" s="0">
-        <v>-47.449844360351563</v>
+        <v>-47.346767425537109</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>73</v>
       </c>
       <c r="E70" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F70" s="0">
-        <v>1000842417</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>112.7</v>
+        <v>112.8</v>
       </c>
       <c r="B71" s="0">
-        <v>-8.714024543762207</v>
+        <v>-20.483512878417969</v>
       </c>
       <c r="C71" s="0">
-        <v>-63.903472900390625</v>
+        <v>-54.688785552978516</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>74</v>
@@ -2385,133 +2382,133 @@
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>112.7</v>
+        <v>112.90000000000001</v>
       </c>
       <c r="B72" s="0">
-        <v>-15.555699348449707</v>
+        <v>-5.0624628067016602</v>
       </c>
       <c r="C72" s="0">
-        <v>-47.346767425537109</v>
+        <v>-42.82513427734375</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>75</v>
       </c>
       <c r="E72" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F72" s="0">
-        <v>-1</v>
+        <v>1000823633</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>112.8</v>
+        <v>112.90000000000001</v>
       </c>
       <c r="B73" s="0">
-        <v>-20.483512878417969</v>
+        <v>-3.387768030166626</v>
       </c>
       <c r="C73" s="0">
-        <v>-54.688785552978516</v>
+        <v>-64.728057861328125</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>76</v>
       </c>
       <c r="E73" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F73" s="0">
-        <v>-1</v>
+        <v>1000842611</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>112.90000000000001</v>
+        <v>113.09999999999999</v>
       </c>
       <c r="B74" s="0">
-        <v>-5.0624628067016602</v>
+        <v>-16.260833740234375</v>
       </c>
       <c r="C74" s="0">
-        <v>-42.82513427734375</v>
+        <v>-47.971000671386719</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>77</v>
       </c>
       <c r="E74" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F74" s="0">
-        <v>1000823633</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>112.90000000000001</v>
+        <v>113.09999999999999</v>
       </c>
       <c r="B75" s="0">
-        <v>-3.387768030166626</v>
+        <v>2.8521022796630859</v>
       </c>
       <c r="C75" s="0">
-        <v>-64.728057861328125</v>
+        <v>-60.6868896484375</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>78</v>
       </c>
       <c r="E75" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F75" s="0">
-        <v>1000842611</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>113.09999999999999</v>
+        <v>113.2</v>
       </c>
       <c r="B76" s="0">
-        <v>-16.260833740234375</v>
+        <v>-3.2493693828582764</v>
       </c>
       <c r="C76" s="0">
-        <v>-47.971000671386719</v>
+        <v>-52.247646331787109</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>79</v>
       </c>
       <c r="E76" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F76" s="0">
-        <v>-1</v>
+        <v>1000842298</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>113.09999999999999</v>
+        <v>113.3</v>
       </c>
       <c r="B77" s="0">
-        <v>2.8521022796630859</v>
+        <v>-15.853528022766113</v>
       </c>
       <c r="C77" s="0">
-        <v>-60.6868896484375</v>
+        <v>-52.395599365234375</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>80</v>
       </c>
       <c r="E77" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F77" s="0">
-        <v>-1</v>
+        <v>1000842310</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="B78" s="0">
-        <v>-3.2493693828582764</v>
+        <v>-31.718883514404297</v>
       </c>
       <c r="C78" s="0">
-        <v>-52.247646331787109</v>
+        <v>-52.327445983886719</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>81</v>
@@ -2520,47 +2517,47 @@
         <v>108</v>
       </c>
       <c r="F78" s="0">
-        <v>1000842298</v>
+        <v>1000842557</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>113.3</v>
+        <v>113.40000000000001</v>
       </c>
       <c r="B79" s="0">
-        <v>-15.853528022766113</v>
+        <v>-3.8567445278167725</v>
       </c>
       <c r="C79" s="0">
-        <v>-52.395599365234375</v>
+        <v>-32.429939270019531</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E79" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F79" s="0">
-        <v>1000842310</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>113.3</v>
+        <v>113.40000000000001</v>
       </c>
       <c r="B80" s="0">
-        <v>-31.718883514404297</v>
+        <v>-9.8683614730834961</v>
       </c>
       <c r="C80" s="0">
-        <v>-52.327445983886719</v>
+        <v>-56.104949951171875</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>83</v>
       </c>
       <c r="E80" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F80" s="0">
-        <v>1000842557</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2568,10 +2565,10 @@
         <v>113.40000000000001</v>
       </c>
       <c r="B81" s="0">
-        <v>-3.8567445278167725</v>
+        <v>-27.669916152954102</v>
       </c>
       <c r="C81" s="0">
-        <v>-32.429939270019531</v>
+        <v>-48.540451049804688</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>84</v>
@@ -2585,33 +2582,33 @@
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>113.40000000000001</v>
+        <v>113.5</v>
       </c>
       <c r="B82" s="0">
-        <v>-9.8683614730834961</v>
+        <v>-22.173057556152344</v>
       </c>
       <c r="C82" s="0">
-        <v>-56.104949951171875</v>
+        <v>-51.426349639892578</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>85</v>
       </c>
       <c r="E82" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F82" s="0">
-        <v>-1</v>
+        <v>1000823005</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>113.40000000000001</v>
+        <v>113.5</v>
       </c>
       <c r="B83" s="0">
-        <v>-27.669916152954102</v>
+        <v>-2.589240550994873</v>
       </c>
       <c r="C83" s="0">
-        <v>-48.540451049804688</v>
+        <v>-44.239967346191406</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>86</v>
@@ -2625,33 +2622,33 @@
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>113.5</v>
+        <v>113.59999999999999</v>
       </c>
       <c r="B84" s="0">
-        <v>-22.173057556152344</v>
+        <v>-22.949626922607422</v>
       </c>
       <c r="C84" s="0">
-        <v>-51.426349639892578</v>
+        <v>-43.727401733398438</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E84" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F84" s="0">
-        <v>1000823005</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>113.5</v>
+        <v>113.59999999999999</v>
       </c>
       <c r="B85" s="0">
-        <v>-2.589240550994873</v>
+        <v>-29.950138092041016</v>
       </c>
       <c r="C85" s="0">
-        <v>-44.239967346191406</v>
+        <v>-51.145957946777344</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>88</v>
@@ -2665,33 +2662,33 @@
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>113.59999999999999</v>
+        <v>113.7</v>
       </c>
       <c r="B86" s="0">
-        <v>-22.949626922607422</v>
+        <v>-5.3681573867797852</v>
       </c>
       <c r="C86" s="0">
-        <v>-43.727401733398438</v>
+        <v>-49.135231018066406</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>89</v>
       </c>
       <c r="E86" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F86" s="0">
-        <v>-1</v>
+        <v>1000842450</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>113.59999999999999</v>
+        <v>113.7</v>
       </c>
       <c r="B87" s="0">
-        <v>-29.950138092041016</v>
+        <v>-13.264640808105469</v>
       </c>
       <c r="C87" s="0">
-        <v>-51.145957946777344</v>
+        <v>-43.408172607421875</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>90</v>
@@ -2708,30 +2705,30 @@
         <v>113.7</v>
       </c>
       <c r="B88" s="0">
-        <v>-5.3681573867797852</v>
+        <v>-15.65609073638916</v>
       </c>
       <c r="C88" s="0">
-        <v>-49.135231018066406</v>
+        <v>-56.112026214599609</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E88" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F88" s="0">
-        <v>1000842450</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>113.7</v>
+        <v>114.09999999999999</v>
       </c>
       <c r="B89" s="0">
-        <v>-13.264640808105469</v>
+        <v>-2.667222261428833</v>
       </c>
       <c r="C89" s="0">
-        <v>-43.408172607421875</v>
+        <v>-56.773334503173828</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>92</v>
@@ -2745,13 +2742,13 @@
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>113.7</v>
+        <v>114.09999999999999</v>
       </c>
       <c r="B90" s="0">
-        <v>-15.65609073638916</v>
+        <v>-25.738832473754883</v>
       </c>
       <c r="C90" s="0">
-        <v>-56.112026214599609</v>
+        <v>-54.488834381103516</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>93</v>
@@ -2768,10 +2765,10 @@
         <v>114.09999999999999</v>
       </c>
       <c r="B91" s="0">
-        <v>-2.667222261428833</v>
+        <v>-3.7722716331481934</v>
       </c>
       <c r="C91" s="0">
-        <v>-56.773334503173828</v>
+        <v>-38.547691345214844</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>94</v>
@@ -2785,13 +2782,13 @@
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>114.09999999999999</v>
+        <v>114.3</v>
       </c>
       <c r="B92" s="0">
-        <v>-25.738832473754883</v>
+        <v>-5.9083333015441895</v>
       </c>
       <c r="C92" s="0">
-        <v>-54.488834381103516</v>
+        <v>-35.248664855957031</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>95</v>
@@ -2805,13 +2802,13 @@
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>114.09999999999999</v>
+        <v>114.3</v>
       </c>
       <c r="B93" s="0">
-        <v>-3.7722716331481934</v>
+        <v>-32.342166900634766</v>
       </c>
       <c r="C93" s="0">
-        <v>-38.547691345214844</v>
+        <v>-54.222000122070313</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>96</v>
@@ -2828,10 +2825,10 @@
         <v>114.3</v>
       </c>
       <c r="B94" s="0">
-        <v>-5.9083333015441895</v>
+        <v>-12.079939842224121</v>
       </c>
       <c r="C94" s="0">
-        <v>-35.248664855957031</v>
+        <v>-45.007133483886719</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>97</v>
@@ -2848,10 +2845,10 @@
         <v>114.3</v>
       </c>
       <c r="B95" s="0">
-        <v>-32.342166900634766</v>
+        <v>-23.487541198730469</v>
       </c>
       <c r="C95" s="0">
-        <v>-54.222000122070313</v>
+        <v>-46.923309326171875</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>98</v>
@@ -2865,33 +2862,33 @@
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>114.3</v>
+        <v>114.40000000000001</v>
       </c>
       <c r="B96" s="0">
-        <v>-12.079939842224121</v>
+        <v>-6.1196446418762207</v>
       </c>
       <c r="C96" s="0">
-        <v>-45.007133483886719</v>
+        <v>-50.001995086669922</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>99</v>
       </c>
       <c r="E96" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F96" s="0">
-        <v>-1</v>
+        <v>1000842492</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>114.3</v>
+        <v>114.40000000000001</v>
       </c>
       <c r="B97" s="0">
-        <v>-23.487541198730469</v>
+        <v>-19.55821418762207</v>
       </c>
       <c r="C97" s="0">
-        <v>-46.923309326171875</v>
+        <v>-44.048511505126953</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>100</v>
@@ -2905,33 +2902,33 @@
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>114.40000000000001</v>
+        <v>114.59999999999999</v>
       </c>
       <c r="B98" s="0">
-        <v>-6.1196446418762207</v>
+        <v>-22.715394973754883</v>
       </c>
       <c r="C98" s="0">
-        <v>-50.001995086669922</v>
+        <v>-42.857421875</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>101</v>
       </c>
       <c r="E98" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F98" s="0">
-        <v>1000842492</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>114.40000000000001</v>
+        <v>114.7</v>
       </c>
       <c r="B99" s="0">
-        <v>-19.55821418762207</v>
+        <v>-29.998178482055664</v>
       </c>
       <c r="C99" s="0">
-        <v>-44.048511505126953</v>
+        <v>-50.975543975830078</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>102</v>
@@ -2945,13 +2942,13 @@
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>114.59999999999999</v>
+        <v>114.8</v>
       </c>
       <c r="B100" s="0">
-        <v>-22.715394973754883</v>
+        <v>-22.967174530029297</v>
       </c>
       <c r="C100" s="0">
-        <v>-42.857421875</v>
+        <v>-42.890945434570313</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>103</v>
@@ -2965,13 +2962,13 @@
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>114.7</v>
+        <v>115</v>
       </c>
       <c r="B101" s="0">
-        <v>-29.998178482055664</v>
+        <v>-22.454051971435547</v>
       </c>
       <c r="C101" s="0">
-        <v>-50.975543975830078</v>
+        <v>-43.840507507324219</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>104</v>
@@ -2985,33 +2982,33 @@
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>114.8</v>
+        <v>115.09999999999999</v>
       </c>
       <c r="B102" s="0">
-        <v>-22.967174530029297</v>
+        <v>-26.222261428833008</v>
       </c>
       <c r="C102" s="0">
-        <v>-42.890945434570313</v>
+        <v>-48.798046112060547</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>105</v>
       </c>
       <c r="E102" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F102" s="0">
-        <v>-1</v>
+        <v>1000822823</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>115</v>
+        <v>115.09999999999999</v>
       </c>
       <c r="B103" s="0">
-        <v>-22.454051971435547</v>
+        <v>-9.3313283920288086</v>
       </c>
       <c r="C103" s="0">
-        <v>-43.840507507324219</v>
+        <v>-54.965038299560547</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>106</v>
@@ -3028,30 +3025,30 @@
         <v>115.09999999999999</v>
       </c>
       <c r="B104" s="0">
-        <v>-26.222261428833008</v>
+        <v>-9.5098943710327148</v>
       </c>
       <c r="C104" s="0">
-        <v>-48.798046112060547</v>
+        <v>-35.786872863769531</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>107</v>
       </c>
       <c r="E104" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F104" s="0">
-        <v>1000822823</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>115.09999999999999</v>
+        <v>115.2</v>
       </c>
       <c r="B105" s="0">
-        <v>-9.3313283920288086</v>
+        <v>-23.507055282592773</v>
       </c>
       <c r="C105" s="0">
-        <v>-54.965038299560547</v>
+        <v>-47.378219604492188</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>108</v>
@@ -3065,33 +3062,33 @@
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>115.09999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="B106" s="0">
-        <v>-9.5098943710327148</v>
+        <v>-31.390714645385742</v>
       </c>
       <c r="C106" s="0">
-        <v>-35.786872863769531</v>
+        <v>-54.109718322753906</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>109</v>
       </c>
       <c r="E106" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F106" s="0">
-        <v>-1</v>
+        <v>1000842301</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>115.2</v>
+        <v>115.40000000000001</v>
       </c>
       <c r="B107" s="0">
-        <v>-23.507055282592773</v>
+        <v>-23.233165740966797</v>
       </c>
       <c r="C107" s="0">
-        <v>-47.378219604492188</v>
+        <v>-45.860000610351563</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>110</v>
@@ -3105,33 +3102,33 @@
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>115.3</v>
+        <v>115.40000000000001</v>
       </c>
       <c r="B108" s="0">
-        <v>-31.390714645385742</v>
+        <v>-10.981925964355469</v>
       </c>
       <c r="C108" s="0">
-        <v>-54.109718322753906</v>
+        <v>-37.077377319335938</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>111</v>
       </c>
       <c r="E108" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F108" s="0">
-        <v>1000842301</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>115.40000000000001</v>
+        <v>115.59999999999999</v>
       </c>
       <c r="B109" s="0">
-        <v>-23.233165740966797</v>
+        <v>-21.142778396606445</v>
       </c>
       <c r="C109" s="0">
-        <v>-45.860000610351563</v>
+        <v>-47.770278930664063</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>112</v>
@@ -3145,13 +3142,13 @@
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>115.40000000000001</v>
+        <v>115.8</v>
       </c>
       <c r="B110" s="0">
-        <v>-10.981925964355469</v>
+        <v>-21.984561920166016</v>
       </c>
       <c r="C110" s="0">
-        <v>-37.077377319335938</v>
+        <v>-47.344501495361328</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>113</v>
@@ -3165,13 +3162,13 @@
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>115.59999999999999</v>
+        <v>115.8</v>
       </c>
       <c r="B111" s="0">
-        <v>-21.142778396606445</v>
+        <v>-3.0400304794311523</v>
       </c>
       <c r="C111" s="0">
-        <v>-47.770278930664063</v>
+        <v>-60.054737091064453</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>114</v>
@@ -3185,33 +3182,33 @@
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>115.8</v>
+        <v>115.90000000000001</v>
       </c>
       <c r="B112" s="0">
-        <v>-21.984561920166016</v>
+        <v>-22.344448089599609</v>
       </c>
       <c r="C112" s="0">
-        <v>-47.344501495361328</v>
+        <v>-41.769001007080078</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>115</v>
       </c>
       <c r="E112" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F112" s="0">
-        <v>-1</v>
+        <v>1000822890</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>115.8</v>
+        <v>115.90000000000001</v>
       </c>
       <c r="B113" s="0">
-        <v>-3.0400304794311523</v>
+        <v>-14.798999786376953</v>
       </c>
       <c r="C113" s="0">
-        <v>-60.054737091064453</v>
+        <v>-64.938331604003906</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>116</v>
@@ -3228,19 +3225,19 @@
         <v>115.90000000000001</v>
       </c>
       <c r="B114" s="0">
-        <v>-22.344448089599609</v>
+        <v>-25.244167327880859</v>
       </c>
       <c r="C114" s="0">
-        <v>-41.769001007080078</v>
+        <v>-57.521999359130859</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>117</v>
       </c>
       <c r="E114" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F114" s="0">
-        <v>1000822890</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115">
@@ -3248,19 +3245,19 @@
         <v>115.90000000000001</v>
       </c>
       <c r="B115" s="0">
-        <v>-14.798999786376953</v>
+        <v>-16.641086578369141</v>
       </c>
       <c r="C115" s="0">
-        <v>-64.938331604003906</v>
+        <v>-49.21124267578125</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>118</v>
       </c>
       <c r="E115" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F115" s="0">
-        <v>-1</v>
+        <v>1000822807</v>
       </c>
     </row>
     <row r="116">
@@ -3268,10 +3265,10 @@
         <v>115.90000000000001</v>
       </c>
       <c r="B116" s="0">
-        <v>-25.244167327880859</v>
+        <v>-5.7718110084533691</v>
       </c>
       <c r="C116" s="0">
-        <v>-57.521999359130859</v>
+        <v>-35.368679046630859</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>119</v>
@@ -3285,53 +3282,53 @@
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>115.90000000000001</v>
+        <v>116.09999999999999</v>
       </c>
       <c r="B117" s="0">
-        <v>-16.641086578369141</v>
+        <v>-27.135692596435547</v>
       </c>
       <c r="C117" s="0">
-        <v>-49.21124267578125</v>
+        <v>-52.662967681884766</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>120</v>
       </c>
       <c r="E117" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F117" s="0">
-        <v>1000822807</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>115.90000000000001</v>
+        <v>116.09999999999999</v>
       </c>
       <c r="B118" s="0">
-        <v>-5.7718110084533691</v>
+        <v>-18.876609802246094</v>
       </c>
       <c r="C118" s="0">
-        <v>-35.368679046630859</v>
+        <v>-48.221298217773438</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>121</v>
       </c>
       <c r="E118" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F118" s="0">
-        <v>-1</v>
+        <v>1000823668</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>116.09999999999999</v>
+        <v>116.2</v>
       </c>
       <c r="B119" s="0">
-        <v>-27.135692596435547</v>
+        <v>-22.951452255249023</v>
       </c>
       <c r="C119" s="0">
-        <v>-52.662967681884766</v>
+        <v>-46.569805145263672</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>122</v>
@@ -3345,53 +3342,53 @@
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>116.09999999999999</v>
+        <v>116.40000000000001</v>
       </c>
       <c r="B120" s="0">
-        <v>-18.876609802246094</v>
+        <v>-9.8759822845458984</v>
       </c>
       <c r="C120" s="0">
-        <v>-48.221298217773438</v>
+        <v>-67.905380249023438</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>123</v>
       </c>
       <c r="E120" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F120" s="0">
-        <v>1000823668</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>116.2</v>
+        <v>116.40000000000001</v>
       </c>
       <c r="B121" s="0">
-        <v>-22.951452255249023</v>
+        <v>-20.260166168212891</v>
       </c>
       <c r="C121" s="0">
-        <v>-46.569805145263672</v>
+        <v>-40.284999847412109</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>124</v>
       </c>
       <c r="E121" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F121" s="0">
-        <v>-1</v>
+        <v>1000823765</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>116.40000000000001</v>
+        <v>116.5</v>
       </c>
       <c r="B122" s="0">
-        <v>-9.8759822845458984</v>
+        <v>-25.53203010559082</v>
       </c>
       <c r="C122" s="0">
-        <v>-67.905380249023438</v>
+        <v>-49.16766357421875</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>125</v>
@@ -3405,33 +3402,33 @@
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>116.40000000000001</v>
+        <v>116.5</v>
       </c>
       <c r="B123" s="0">
-        <v>-20.260166168212891</v>
+        <v>-12.906418800354004</v>
       </c>
       <c r="C123" s="0">
-        <v>-40.284999847412109</v>
+        <v>-38.321365356445313</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>126</v>
       </c>
       <c r="E123" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F123" s="0">
-        <v>1000823765</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>116.5</v>
+        <v>116.59999999999999</v>
       </c>
       <c r="B124" s="0">
-        <v>-25.53203010559082</v>
+        <v>-0.15027777850627899</v>
       </c>
       <c r="C124" s="0">
-        <v>-49.16766357421875</v>
+        <v>-66.990570068359375</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>127</v>
@@ -3445,13 +3442,13 @@
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>116.5</v>
+        <v>116.7</v>
       </c>
       <c r="B125" s="0">
-        <v>-12.906418800354004</v>
+        <v>-23.89097785949707</v>
       </c>
       <c r="C125" s="0">
-        <v>-38.321365356445313</v>
+        <v>-46.5281982421875</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>128</v>
@@ -3465,13 +3462,13 @@
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>116.59999999999999</v>
+        <v>116.7</v>
       </c>
       <c r="B126" s="0">
-        <v>-0.15027777850627899</v>
+        <v>-2.3714849948883057</v>
       </c>
       <c r="C126" s="0">
-        <v>-66.990570068359375</v>
+        <v>-44.397098541259766</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>129</v>
@@ -3485,13 +3482,13 @@
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>116.7</v>
+        <v>116.8</v>
       </c>
       <c r="B127" s="0">
-        <v>-23.89097785949707</v>
+        <v>-16.245367050170898</v>
       </c>
       <c r="C127" s="0">
-        <v>-46.5281982421875</v>
+        <v>-48.979087829589844</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>130</v>
@@ -3505,13 +3502,13 @@
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>116.7</v>
+        <v>116.90000000000001</v>
       </c>
       <c r="B128" s="0">
-        <v>-2.3714849948883057</v>
+        <v>-23.627464294433594</v>
       </c>
       <c r="C128" s="0">
-        <v>-44.397098541259766</v>
+        <v>-46.654636383056641</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>131</v>
@@ -3525,13 +3522,13 @@
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>116.8</v>
+        <v>116.90000000000001</v>
       </c>
       <c r="B129" s="0">
-        <v>-16.245367050170898</v>
+        <v>-8.1365804672241211</v>
       </c>
       <c r="C129" s="0">
-        <v>-48.979087829589844</v>
+        <v>-34.927299499511719</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>132</v>
@@ -3545,13 +3542,13 @@
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>116.90000000000001</v>
+        <v>117</v>
       </c>
       <c r="B130" s="0">
-        <v>-23.627464294433594</v>
+        <v>-19.689046859741211</v>
       </c>
       <c r="C130" s="0">
-        <v>-46.654636383056641</v>
+        <v>-47.060573577880859</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>133</v>
@@ -3565,13 +3562,13 @@
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>116.90000000000001</v>
+        <v>117.3</v>
       </c>
       <c r="B131" s="0">
-        <v>-8.1365804672241211</v>
+        <v>-1.384358286857605</v>
       </c>
       <c r="C131" s="0">
-        <v>-34.927299499511719</v>
+        <v>-48.478565216064453</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>134</v>
@@ -3585,13 +3582,13 @@
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>117</v>
+        <v>117.5</v>
       </c>
       <c r="B132" s="0">
-        <v>-19.689046859741211</v>
+        <v>-4.195000171661377</v>
       </c>
       <c r="C132" s="0">
-        <v>-47.060573577880859</v>
+        <v>-69.9405517578125</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>135</v>
@@ -3605,13 +3602,13 @@
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>117.3</v>
+        <v>117.5</v>
       </c>
       <c r="B133" s="0">
-        <v>-1.384358286857605</v>
+        <v>-15.865013122558594</v>
       </c>
       <c r="C133" s="0">
-        <v>-48.478565216064453</v>
+        <v>-47.900188446044922</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>136</v>
@@ -3625,13 +3622,13 @@
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>117.5</v>
+        <v>117.7</v>
       </c>
       <c r="B134" s="0">
-        <v>-4.195000171661377</v>
+        <v>4.6929998397827148</v>
       </c>
       <c r="C134" s="0">
-        <v>-69.9405517578125</v>
+        <v>-61.028831481933594</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>137</v>
@@ -3645,13 +3642,13 @@
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>117.5</v>
+        <v>117.7</v>
       </c>
       <c r="B135" s="0">
-        <v>-15.865013122558594</v>
+        <v>-19.835769653320313</v>
       </c>
       <c r="C135" s="0">
-        <v>-47.900188446044922</v>
+        <v>-44.003562927246094</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>138</v>
@@ -3665,13 +3662,13 @@
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>117.7</v>
+        <v>967</v>
       </c>
       <c r="B136" s="0">
-        <v>4.6929998397827148</v>
+        <v>-2.5783333778381348</v>
       </c>
       <c r="C136" s="0">
-        <v>-61.028831481933594</v>
+        <v>-44.22833251953125</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>139</v>
@@ -3685,13 +3682,13 @@
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>117.7</v>
+        <v>985</v>
       </c>
       <c r="B137" s="0">
-        <v>-19.835769653320313</v>
+        <v>-21.700469970703125</v>
       </c>
       <c r="C137" s="0">
-        <v>-44.003562927246094</v>
+        <v>-41.307670593261719</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>140</v>
@@ -3705,13 +3702,13 @@
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>967</v>
+        <v>989</v>
       </c>
       <c r="B138" s="0">
-        <v>-2.5783333778381348</v>
+        <v>-25.602205276489258</v>
       </c>
       <c r="C138" s="0">
-        <v>-44.22833251953125</v>
+        <v>-54.478145599365234</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>141</v>
@@ -3725,16 +3722,16 @@
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="B139" s="0">
-        <v>-21.700469970703125</v>
+        <v>-21.787372589111328</v>
       </c>
       <c r="C139" s="0">
-        <v>-41.307670593261719</v>
+        <v>-43.386348724365234</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E139" s="0">
         <v>-1</v>
@@ -3748,30 +3745,30 @@
         <v>989</v>
       </c>
       <c r="B140" s="0">
-        <v>-25.602205276489258</v>
+        <v>-7.2745223045349121</v>
       </c>
       <c r="C140" s="0">
-        <v>-54.478145599365234</v>
+        <v>-35.888996124267578</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E140" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F140" s="0">
-        <v>-1</v>
+        <v>1000842379</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B141" s="0">
-        <v>-21.787372589111328</v>
+        <v>-23.637666702270508</v>
       </c>
       <c r="C141" s="0">
-        <v>-43.386348724365234</v>
+        <v>-46.648834228515625</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>143</v>
@@ -3785,13 +3782,13 @@
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B142" s="0">
-        <v>-7.2745223045349121</v>
+        <v>-2.4219999313354492</v>
       </c>
       <c r="C142" s="0">
-        <v>-35.888996124267578</v>
+        <v>-54.789165496826172</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>144</v>
@@ -3800,7 +3797,7 @@
         <v>108</v>
       </c>
       <c r="F142" s="0">
-        <v>1000842379</v>
+        <v>1000823218</v>
       </c>
     </row>
     <row r="143">
@@ -3808,10 +3805,10 @@
         <v>991</v>
       </c>
       <c r="B143" s="0">
-        <v>-23.637666702270508</v>
+        <v>2.8537695407867432</v>
       </c>
       <c r="C143" s="0">
-        <v>-46.648834228515625</v>
+        <v>-60.676971435546875</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>145</v>
@@ -3828,19 +3825,19 @@
         <v>991</v>
       </c>
       <c r="B144" s="0">
-        <v>-2.4219999313354492</v>
+        <v>-1.3700000047683716</v>
       </c>
       <c r="C144" s="0">
-        <v>-54.789165496826172</v>
+        <v>-48.465000152587891</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>146</v>
       </c>
       <c r="E144" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F144" s="0">
-        <v>1000823218</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -3848,19 +3845,19 @@
         <v>991</v>
       </c>
       <c r="B145" s="0">
-        <v>2.8537695407867432</v>
+        <v>-19.85540771484375</v>
       </c>
       <c r="C145" s="0">
-        <v>-60.676971435546875</v>
+        <v>-43.937149047851563</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>147</v>
       </c>
       <c r="E145" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F145" s="0">
-        <v>-1</v>
+        <v>1000822734</v>
       </c>
     </row>
     <row r="146">
@@ -3868,10 +3865,10 @@
         <v>991</v>
       </c>
       <c r="B146" s="0">
-        <v>-1.3700000047683716</v>
+        <v>-15.863666534423828</v>
       </c>
       <c r="C146" s="0">
-        <v>-48.465000152587891</v>
+        <v>-47.929668426513672</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>148</v>
@@ -3888,19 +3885,19 @@
         <v>991</v>
       </c>
       <c r="B147" s="0">
-        <v>-19.85540771484375</v>
+        <v>-15.64234733581543</v>
       </c>
       <c r="C147" s="0">
-        <v>-43.937149047851563</v>
+        <v>-56.123096466064453</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>149</v>
       </c>
       <c r="E147" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F147" s="0">
-        <v>1000822734</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148">
@@ -3908,10 +3905,10 @@
         <v>991</v>
       </c>
       <c r="B148" s="0">
-        <v>-15.863666534423828</v>
+        <v>-5.9215002059936523</v>
       </c>
       <c r="C148" s="0">
-        <v>-47.929668426513672</v>
+        <v>-35.235668182373047</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>150</v>
@@ -3928,10 +3925,10 @@
         <v>991</v>
       </c>
       <c r="B149" s="0">
-        <v>-15.64234733581543</v>
+        <v>-8.7224025726318359</v>
       </c>
       <c r="C149" s="0">
-        <v>-56.123096466064453</v>
+        <v>-63.900970458984375</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>151</v>
@@ -3948,10 +3945,10 @@
         <v>991</v>
       </c>
       <c r="B150" s="0">
-        <v>-5.9215002059936523</v>
+        <v>-9.8611669540405273</v>
       </c>
       <c r="C150" s="0">
-        <v>-35.235668182373047</v>
+        <v>-67.881668090820313</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>152</v>
@@ -3968,19 +3965,19 @@
         <v>991</v>
       </c>
       <c r="B151" s="0">
-        <v>-8.7224025726318359</v>
+        <v>-6.1164917945861816</v>
       </c>
       <c r="C151" s="0">
-        <v>-63.900970458984375</v>
+        <v>-49.991783142089844</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>153</v>
       </c>
       <c r="E151" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F151" s="0">
-        <v>-1</v>
+        <v>1000842530</v>
       </c>
     </row>
     <row r="152">
@@ -3988,19 +3985,19 @@
         <v>991</v>
       </c>
       <c r="B152" s="0">
-        <v>-9.8611669540405273</v>
+        <v>-18.872236251831055</v>
       </c>
       <c r="C152" s="0">
-        <v>-67.881668090820313</v>
+        <v>-48.220924377441406</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>154</v>
       </c>
       <c r="E152" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F152" s="0">
-        <v>-1</v>
+        <v>1000823749</v>
       </c>
     </row>
     <row r="153">
@@ -4008,10 +4005,10 @@
         <v>991</v>
       </c>
       <c r="B153" s="0">
-        <v>-6.1164917945861816</v>
+        <v>-20.266641616821289</v>
       </c>
       <c r="C153" s="0">
-        <v>-49.991783142089844</v>
+        <v>-40.293407440185547</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>155</v>
@@ -4020,7 +4017,7 @@
         <v>108</v>
       </c>
       <c r="F153" s="0">
-        <v>1000842530</v>
+        <v>1000823846</v>
       </c>
     </row>
     <row r="154">
@@ -4028,19 +4025,19 @@
         <v>991</v>
       </c>
       <c r="B154" s="0">
-        <v>-18.872236251831055</v>
+        <v>-3.1478838920593262</v>
       </c>
       <c r="C154" s="0">
-        <v>-48.220924377441406</v>
+        <v>-59.976051330566406</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>156</v>
       </c>
       <c r="E154" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F154" s="0">
-        <v>1000823749</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -4048,19 +4045,19 @@
         <v>991</v>
       </c>
       <c r="B155" s="0">
-        <v>-20.266641616821289</v>
+        <v>-25.523235321044922</v>
       </c>
       <c r="C155" s="0">
-        <v>-40.293407440185547</v>
+        <v>-49.179935455322266</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>157</v>
       </c>
       <c r="E155" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F155" s="0">
-        <v>1000823846</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
@@ -4068,10 +4065,10 @@
         <v>991</v>
       </c>
       <c r="B156" s="0">
-        <v>-3.1478838920593262</v>
+        <v>-21.97319221496582</v>
       </c>
       <c r="C156" s="0">
-        <v>-59.976051330566406</v>
+        <v>-47.3406982421875</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>158</v>
@@ -4085,13 +4082,13 @@
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="B157" s="0">
-        <v>-25.523235321044922</v>
+        <v>-9.5098047256469727</v>
       </c>
       <c r="C157" s="0">
-        <v>-49.179935455322266</v>
+        <v>-35.786945343017578</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>159</v>
@@ -4105,13 +4102,13 @@
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="B158" s="0">
-        <v>-21.97319221496582</v>
+        <v>-19.649383544921875</v>
       </c>
       <c r="C158" s="0">
-        <v>-47.3406982421875</v>
+        <v>-43.952793121337891</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>160</v>
@@ -4128,10 +4125,10 @@
         <v>995</v>
       </c>
       <c r="B159" s="0">
-        <v>-9.5098047256469727</v>
+        <v>-9.3369464874267578</v>
       </c>
       <c r="C159" s="0">
-        <v>-35.786945343017578</v>
+        <v>-54.952426910400391</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>161</v>
@@ -4148,10 +4145,10 @@
         <v>995</v>
       </c>
       <c r="B160" s="0">
-        <v>-19.649383544921875</v>
+        <v>-5.7718081474304199</v>
       </c>
       <c r="C160" s="0">
-        <v>-43.952793121337891</v>
+        <v>-35.350193023681641</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>162</v>
@@ -4168,10 +4165,10 @@
         <v>995</v>
       </c>
       <c r="B161" s="0">
-        <v>-9.3369464874267578</v>
+        <v>-23.631380081176758</v>
       </c>
       <c r="C161" s="0">
-        <v>-54.952426910400391</v>
+        <v>-46.652061462402344</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>163</v>
@@ -4185,13 +4182,13 @@
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B162" s="0">
-        <v>-5.7718081474304199</v>
+        <v>-15.878366470336914</v>
       </c>
       <c r="C162" s="0">
-        <v>-35.350193023681641</v>
+        <v>-47.906864166259766</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>164</v>
@@ -4205,13 +4202,13 @@
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="B163" s="0">
-        <v>-23.631380081176758</v>
+        <v>-27.677776336669922</v>
       </c>
       <c r="C163" s="0">
-        <v>-46.652061462402344</v>
+        <v>-48.527347564697266</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>165</v>
@@ -4225,13 +4222,13 @@
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="B164" s="0">
-        <v>-15.878366470336914</v>
+        <v>-29.995765686035156</v>
       </c>
       <c r="C164" s="0">
-        <v>-47.906864166259766</v>
+        <v>-51.158531188964844</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>166</v>
@@ -4248,10 +4245,10 @@
         <v>1001</v>
       </c>
       <c r="B165" s="0">
-        <v>-27.677776336669922</v>
+        <v>-19.646078109741211</v>
       </c>
       <c r="C165" s="0">
-        <v>-48.527347564697266</v>
+        <v>-43.958480834960938</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>167</v>
@@ -4268,10 +4265,10 @@
         <v>1001</v>
       </c>
       <c r="B166" s="0">
-        <v>-29.995765686035156</v>
+        <v>-20.459402084350586</v>
       </c>
       <c r="C166" s="0">
-        <v>-51.158531188964844</v>
+        <v>-54.66375732421875</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>168</v>
@@ -4288,10 +4285,10 @@
         <v>1001</v>
       </c>
       <c r="B167" s="0">
-        <v>-19.646078109741211</v>
+        <v>-3.0418334007263184</v>
       </c>
       <c r="C167" s="0">
-        <v>-43.958480834960938</v>
+        <v>-60.034168243408203</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>169</v>
@@ -4308,10 +4305,10 @@
         <v>1001</v>
       </c>
       <c r="B168" s="0">
-        <v>-20.459402084350586</v>
+        <v>-8.1415004730224609</v>
       </c>
       <c r="C168" s="0">
-        <v>-54.66375732421875</v>
+        <v>-34.918834686279297</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>170</v>
@@ -4328,10 +4325,10 @@
         <v>1001</v>
       </c>
       <c r="B169" s="0">
-        <v>-3.0418334007263184</v>
+        <v>-23.239500045776367</v>
       </c>
       <c r="C169" s="0">
-        <v>-60.034168243408203</v>
+        <v>-45.850334167480469</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>171</v>
@@ -4348,10 +4345,10 @@
         <v>1001</v>
       </c>
       <c r="B170" s="0">
-        <v>-8.1415004730224609</v>
+        <v>-29.994213104248047</v>
       </c>
       <c r="C170" s="0">
-        <v>-34.918834686279297</v>
+        <v>-51.156173706054688</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>172</v>
@@ -4368,10 +4365,10 @@
         <v>1001</v>
       </c>
       <c r="B171" s="0">
-        <v>-23.239500045776367</v>
+        <v>-15.861499786376953</v>
       </c>
       <c r="C171" s="0">
-        <v>-45.850334167480469</v>
+        <v>-47.895000457763672</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>173</v>
@@ -4388,10 +4385,10 @@
         <v>1001</v>
       </c>
       <c r="B172" s="0">
-        <v>-29.994213104248047</v>
+        <v>-25.520069122314453</v>
       </c>
       <c r="C172" s="0">
-        <v>-51.156173706054688</v>
+        <v>-49.185184478759766</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>174</v>
@@ -4405,33 +4402,33 @@
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B173" s="0">
-        <v>-15.861499786376953</v>
+        <v>-22.829702377319336</v>
       </c>
       <c r="C173" s="0">
-        <v>-47.895000457763672</v>
+        <v>-43.236484527587891</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>175</v>
       </c>
       <c r="E173" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F173" s="0">
-        <v>-1</v>
+        <v>1008242109</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B174" s="0">
-        <v>-25.520069122314453</v>
+        <v>-23.434270858764648</v>
       </c>
       <c r="C174" s="0">
-        <v>-49.185184478759766</v>
+        <v>-46.479084014892578</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>176</v>
@@ -4445,33 +4442,33 @@
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B175" s="0">
-        <v>-22.829702377319336</v>
+        <v>-19.474788665771484</v>
       </c>
       <c r="C175" s="0">
-        <v>-43.236484527587891</v>
+        <v>-42.487907409667969</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>177</v>
       </c>
       <c r="E175" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F175" s="0">
-        <v>1008242109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B176" s="0">
-        <v>-23.434270858764648</v>
+        <v>-15.881555557250977</v>
       </c>
       <c r="C176" s="0">
-        <v>-46.479084014892578</v>
+        <v>-47.943820953369141</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>178</v>
@@ -4488,10 +4485,10 @@
         <v>1007</v>
       </c>
       <c r="B177" s="0">
-        <v>-19.474788665771484</v>
+        <v>-12.912315368652344</v>
       </c>
       <c r="C177" s="0">
-        <v>-42.487907409667969</v>
+        <v>-38.337490081787109</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>179</v>
@@ -4508,13 +4505,13 @@
         <v>1007</v>
       </c>
       <c r="B178" s="0">
-        <v>-15.881555557250977</v>
+        <v>-2.4202828407287598</v>
       </c>
       <c r="C178" s="0">
-        <v>-47.943820953369141</v>
+        <v>-54.781005859375</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E178" s="0">
         <v>-1</v>
@@ -4525,16 +4522,16 @@
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B179" s="0">
-        <v>-12.912315368652344</v>
+        <v>-23.433103561401367</v>
       </c>
       <c r="C179" s="0">
-        <v>-38.337490081787109</v>
+        <v>-46.461452484130859</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E179" s="0">
         <v>-1</v>
@@ -4545,22 +4542,22 @@
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B180" s="0">
-        <v>-2.4202828407287598</v>
+        <v>-26.218997955322266</v>
       </c>
       <c r="C180" s="0">
-        <v>-54.781005859375</v>
+        <v>-48.803745269775391</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>181</v>
       </c>
       <c r="E180" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F180" s="0">
-        <v>-1</v>
+        <v>1000822866</v>
       </c>
     </row>
     <row r="181">
@@ -4568,10 +4565,10 @@
         <v>1009</v>
       </c>
       <c r="B181" s="0">
-        <v>-23.433103561401367</v>
+        <v>-16.216852188110352</v>
       </c>
       <c r="C181" s="0">
-        <v>-46.461452484130859</v>
+        <v>-48.956066131591797</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>182</v>
@@ -4585,33 +4582,33 @@
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B182" s="0">
-        <v>-26.218997955322266</v>
+        <v>-22.802667617797852</v>
       </c>
       <c r="C182" s="0">
-        <v>-48.803745269775391</v>
+        <v>-43.258499145507813</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>183</v>
       </c>
       <c r="E182" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F182" s="0">
-        <v>1000822866</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B183" s="0">
-        <v>-16.216852188110352</v>
+        <v>-23.439146041870117</v>
       </c>
       <c r="C183" s="0">
-        <v>-48.956066131591797</v>
+        <v>-46.48382568359375</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>184</v>
@@ -4625,13 +4622,13 @@
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B184" s="0">
-        <v>-22.802667617797852</v>
+        <v>-21.264865875244141</v>
       </c>
       <c r="C184" s="0">
-        <v>-43.258499145507813</v>
+        <v>-43.763263702392578</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>185</v>
@@ -4645,13 +4642,13 @@
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B185" s="0">
-        <v>-23.439146041870117</v>
+        <v>-23.42723274230957</v>
       </c>
       <c r="C185" s="0">
-        <v>-46.48382568359375</v>
+        <v>-46.451854705810547</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>186</v>
@@ -4665,13 +4662,13 @@
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B186" s="0">
-        <v>-21.264865875244141</v>
+        <v>-12.905174255371094</v>
       </c>
       <c r="C186" s="0">
-        <v>-43.763263702392578</v>
+        <v>-38.306034088134766</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>187</v>
@@ -4685,13 +4682,13 @@
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B187" s="0">
-        <v>-23.42723274230957</v>
+        <v>-29.709667205810547</v>
       </c>
       <c r="C187" s="0">
-        <v>-46.451854705810547</v>
+        <v>-53.712665557861328</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>188</v>
@@ -4705,22 +4702,22 @@
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B188" s="0">
-        <v>-12.905174255371094</v>
+        <v>-23.008716583251953</v>
       </c>
       <c r="C188" s="0">
-        <v>-38.306034088134766</v>
+        <v>-47.129047393798828</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>189</v>
       </c>
       <c r="E188" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F188" s="0">
-        <v>-1</v>
+        <v>1000822750</v>
       </c>
     </row>
     <row r="189">
@@ -4728,19 +4725,19 @@
         <v>1018</v>
       </c>
       <c r="B189" s="0">
-        <v>-29.709667205810547</v>
+        <v>-7.6067962646484375</v>
       </c>
       <c r="C189" s="0">
-        <v>-53.712665557861328</v>
+        <v>-72.773468017578125</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>190</v>
       </c>
       <c r="E189" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F189" s="0">
-        <v>-1</v>
+        <v>1000842409</v>
       </c>
     </row>
     <row r="190">
@@ -4748,10 +4745,10 @@
         <v>1018</v>
       </c>
       <c r="B190" s="0">
-        <v>-23.008716583251953</v>
+        <v>0.052246000617742538</v>
       </c>
       <c r="C190" s="0">
-        <v>-47.129047393798828</v>
+        <v>-51.073112487792969</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>191</v>
@@ -4760,38 +4757,38 @@
         <v>108</v>
       </c>
       <c r="F190" s="0">
-        <v>1000822750</v>
+        <v>1000822947</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B191" s="0">
-        <v>-7.6067962646484375</v>
+        <v>-22.812774658203125</v>
       </c>
       <c r="C191" s="0">
-        <v>-72.773468017578125</v>
+        <v>-42.095340728759766</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>192</v>
       </c>
       <c r="E191" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F191" s="0">
-        <v>1000842409</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B192" s="0">
-        <v>0.052246000617742538</v>
+        <v>-9.3627052307128906</v>
       </c>
       <c r="C192" s="0">
-        <v>-51.073112487792969</v>
+        <v>-40.561576843261719</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>193</v>
@@ -4800,7 +4797,7 @@
         <v>108</v>
       </c>
       <c r="F192" s="0">
-        <v>1000822947</v>
+        <v>1000842581</v>
       </c>
     </row>
     <row r="193">
@@ -4808,10 +4805,10 @@
         <v>1019</v>
       </c>
       <c r="B193" s="0">
-        <v>-22.812774658203125</v>
+        <v>-12.69355583190918</v>
       </c>
       <c r="C193" s="0">
-        <v>-42.095340728759766</v>
+        <v>-60.095241546630859</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>194</v>
@@ -4828,99 +4825,99 @@
         <v>1019</v>
       </c>
       <c r="B194" s="0">
-        <v>-9.3627052307128906</v>
+        <v>-25.583202362060547</v>
       </c>
       <c r="C194" s="0">
-        <v>-40.561576843261719</v>
+        <v>-54.503513336181641</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E194" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F194" s="0">
-        <v>1000842581</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B195" s="0">
-        <v>-12.69355583190918</v>
+        <v>-6.235743522644043</v>
       </c>
       <c r="C195" s="0">
-        <v>-60.095241546630859</v>
+        <v>-57.770526885986328</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>196</v>
       </c>
       <c r="E195" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F195" s="0">
-        <v>-1</v>
+        <v>1000842441</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B196" s="0">
-        <v>-25.583202362060547</v>
+        <v>-10.288010597229004</v>
       </c>
       <c r="C196" s="0">
-        <v>-54.503513336181641</v>
+        <v>-48.358531951904297</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>197</v>
       </c>
       <c r="E196" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F196" s="0">
-        <v>-1</v>
+        <v>1000822980</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>1020</v>
+        <v>1157</v>
       </c>
       <c r="B197" s="0">
-        <v>-6.235743522644043</v>
+        <v>-29.19805908203125</v>
       </c>
       <c r="C197" s="0">
-        <v>-57.770526885986328</v>
+        <v>-51.188632965087891</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>198</v>
       </c>
       <c r="E197" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F197" s="0">
-        <v>1000842441</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>1020</v>
+        <v>1157</v>
       </c>
       <c r="B198" s="0">
-        <v>-10.288010597229004</v>
+        <v>-14.119406700134277</v>
       </c>
       <c r="C198" s="0">
-        <v>-48.358531951904297</v>
+        <v>-47.526554107666016</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E198" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F198" s="0">
-        <v>1000822980</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199">
@@ -4928,19 +4925,19 @@
         <v>1157</v>
       </c>
       <c r="B199" s="0">
-        <v>-29.19805908203125</v>
+        <v>-2.4264194965362549</v>
       </c>
       <c r="C199" s="0">
-        <v>-51.188632965087891</v>
+        <v>-54.817562103271484</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>200</v>
       </c>
       <c r="E199" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F199" s="0">
-        <v>-1</v>
+        <v>1000823161</v>
       </c>
     </row>
     <row r="200">
@@ -4965,42 +4962,42 @@
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B201" s="0">
-        <v>-14.119406700134277</v>
+        <v>-23.339515686035156</v>
       </c>
       <c r="C201" s="0">
-        <v>-47.526554107666016</v>
+        <v>-51.112525939941406</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>202</v>
       </c>
       <c r="E201" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F201" s="0">
-        <v>-1</v>
+        <v>1000822882</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B202" s="0">
-        <v>-2.4264194965362549</v>
+        <v>-5.1972999572753906</v>
       </c>
       <c r="C202" s="0">
-        <v>-54.817562103271484</v>
+        <v>-37.364444732666016</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>203</v>
       </c>
       <c r="E202" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F202" s="0">
-        <v>1000823161</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203">
@@ -5008,30 +5005,30 @@
         <v>1158</v>
       </c>
       <c r="B203" s="0">
-        <v>-23.339515686035156</v>
+        <v>-18.231649398803711</v>
       </c>
       <c r="C203" s="0">
-        <v>-51.112525939941406</v>
+        <v>-43.648269653320313</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>204</v>
       </c>
       <c r="E203" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F203" s="0">
-        <v>1000822882</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B204" s="0">
-        <v>-5.1972999572753906</v>
+        <v>-23.035707473754883</v>
       </c>
       <c r="C204" s="0">
-        <v>-37.364444732666016</v>
+        <v>-45.512535095214844</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>205</v>
@@ -5045,33 +5042,33 @@
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="B205" s="0">
-        <v>-18.231649398803711</v>
+        <v>-5.5238885879516602</v>
       </c>
       <c r="C205" s="0">
-        <v>-43.648269653320313</v>
+        <v>-47.449844360351563</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>206</v>
       </c>
       <c r="E205" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F205" s="0">
-        <v>-1</v>
+        <v>1000842425</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B206" s="0">
-        <v>-23.035707473754883</v>
+        <v>-8.714024543762207</v>
       </c>
       <c r="C206" s="0">
-        <v>-45.512535095214844</v>
+        <v>-63.903472900390625</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>207</v>
@@ -5088,30 +5085,30 @@
         <v>1161</v>
       </c>
       <c r="B207" s="0">
-        <v>-5.5238885879516602</v>
+        <v>-15.555699348449707</v>
       </c>
       <c r="C207" s="0">
-        <v>-47.449844360351563</v>
+        <v>-47.346767425537109</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>208</v>
       </c>
       <c r="E207" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F207" s="0">
-        <v>1000842425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B208" s="0">
-        <v>-8.714024543762207</v>
+        <v>-20.483512878417969</v>
       </c>
       <c r="C208" s="0">
-        <v>-63.903472900390625</v>
+        <v>-54.688785552978516</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>209</v>
@@ -5125,13 +5122,13 @@
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B209" s="0">
-        <v>-15.555699348449707</v>
+        <v>-12.770999908447266</v>
       </c>
       <c r="C209" s="0">
-        <v>-47.346767425537109</v>
+        <v>-38.928966522216797</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>210</v>
@@ -5145,42 +5142,42 @@
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B210" s="0">
-        <v>-20.483512878417969</v>
+        <v>-3.387768030166626</v>
       </c>
       <c r="C210" s="0">
-        <v>-54.688785552978516</v>
+        <v>-64.728057861328125</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>211</v>
       </c>
       <c r="E210" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F210" s="0">
-        <v>-1</v>
+        <v>1000842620</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B211" s="0">
-        <v>-12.770999908447266</v>
+        <v>-5.0624628067016602</v>
       </c>
       <c r="C211" s="0">
-        <v>-38.928966522216797</v>
+        <v>-42.82513427734375</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>212</v>
       </c>
       <c r="E211" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F211" s="0">
-        <v>-1</v>
+        <v>1000823641</v>
       </c>
     </row>
     <row r="212">
@@ -5188,19 +5185,19 @@
         <v>1163</v>
       </c>
       <c r="B212" s="0">
-        <v>-3.387768030166626</v>
+        <v>-7.845242977142334</v>
       </c>
       <c r="C212" s="0">
-        <v>-64.728057861328125</v>
+        <v>-34.893100738525391</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>213</v>
       </c>
       <c r="E212" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F212" s="0">
-        <v>1000842620</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213">
@@ -5208,19 +5205,19 @@
         <v>1163</v>
       </c>
       <c r="B213" s="0">
-        <v>-5.0624628067016602</v>
+        <v>-29.669475555419922</v>
       </c>
       <c r="C213" s="0">
-        <v>-42.82513427734375</v>
+        <v>-50.78094482421875</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E213" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F213" s="0">
-        <v>1000823641</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214">
@@ -5228,10 +5225,10 @@
         <v>1163</v>
       </c>
       <c r="B214" s="0">
-        <v>-7.845242977142334</v>
+        <v>-17.89329719543457</v>
       </c>
       <c r="C214" s="0">
-        <v>-34.893100738525391</v>
+        <v>-41.513996124267578</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>215</v>
@@ -5245,13 +5242,13 @@
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B215" s="0">
-        <v>-29.669475555419922</v>
+        <v>-24.530059814453125</v>
       </c>
       <c r="C215" s="0">
-        <v>-50.78094482421875</v>
+        <v>-47.842029571533203</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>216</v>
@@ -5265,13 +5262,13 @@
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B216" s="0">
-        <v>-17.89329719543457</v>
+        <v>2.8521022796630859</v>
       </c>
       <c r="C216" s="0">
-        <v>-41.513996124267578</v>
+        <v>-60.6868896484375</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>217</v>
@@ -5285,13 +5282,13 @@
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B217" s="0">
-        <v>-24.530059814453125</v>
+        <v>-16.260833740234375</v>
       </c>
       <c r="C217" s="0">
-        <v>-47.842029571533203</v>
+        <v>-47.971000671386719</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>218</v>
@@ -5305,13 +5302,13 @@
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B218" s="0">
-        <v>2.8521022796630859</v>
+        <v>-17.724945068359375</v>
       </c>
       <c r="C218" s="0">
-        <v>-60.6868896484375</v>
+        <v>-48.613311767578125</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>219</v>
@@ -5325,82 +5322,82 @@
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B219" s="0">
-        <v>-16.260833740234375</v>
+        <v>-15.853528022766113</v>
       </c>
       <c r="C219" s="0">
-        <v>-47.971000671386719</v>
+        <v>-52.395599365234375</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>220</v>
       </c>
       <c r="E219" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F219" s="0">
-        <v>-1</v>
+        <v>1000842328</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B220" s="0">
-        <v>-17.724945068359375</v>
+        <v>-31.719165802001953</v>
       </c>
       <c r="C220" s="0">
-        <v>-48.613311767578125</v>
+        <v>-52.327220916748047</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>221</v>
       </c>
       <c r="E220" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F220" s="0">
-        <v>-1</v>
+        <v>1000842565</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B221" s="0">
-        <v>-15.853528022766113</v>
+        <v>-9.8683614730834961</v>
       </c>
       <c r="C221" s="0">
-        <v>-52.395599365234375</v>
+        <v>-56.104949951171875</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>222</v>
       </c>
       <c r="E221" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F221" s="0">
-        <v>1000842328</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B222" s="0">
-        <v>-31.719165802001953</v>
+        <v>-3.8567445278167725</v>
       </c>
       <c r="C222" s="0">
-        <v>-52.327220916748047</v>
+        <v>-32.429939270019531</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>223</v>
       </c>
       <c r="E222" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F222" s="0">
-        <v>1000842565</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223">
@@ -5408,10 +5405,10 @@
         <v>1168</v>
       </c>
       <c r="B223" s="0">
-        <v>-9.8683614730834961</v>
+        <v>-18.747638702392578</v>
       </c>
       <c r="C223" s="0">
-        <v>-56.104949951171875</v>
+        <v>-44.454833984375</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>224</v>
@@ -5428,10 +5425,10 @@
         <v>1168</v>
       </c>
       <c r="B224" s="0">
-        <v>-3.8567445278167725</v>
+        <v>-27.669916152954102</v>
       </c>
       <c r="C224" s="0">
-        <v>-32.429939270019531</v>
+        <v>-48.540451049804688</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>225</v>
@@ -5445,33 +5442,33 @@
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B225" s="0">
-        <v>-18.747638702392578</v>
+        <v>-22.173057556152344</v>
       </c>
       <c r="C225" s="0">
-        <v>-44.454833984375</v>
+        <v>-51.426349639892578</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>226</v>
       </c>
       <c r="E225" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F225" s="0">
-        <v>-1</v>
+        <v>1000823030</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B226" s="0">
-        <v>-27.669916152954102</v>
+        <v>-2.589240550994873</v>
       </c>
       <c r="C226" s="0">
-        <v>-48.540451049804688</v>
+        <v>-44.239967346191406</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>227</v>
@@ -5485,33 +5482,33 @@
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B227" s="0">
-        <v>-22.173057556152344</v>
+        <v>-22.949626922607422</v>
       </c>
       <c r="C227" s="0">
-        <v>-51.426349639892578</v>
+        <v>-43.727405548095703</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>228</v>
       </c>
       <c r="E227" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F227" s="0">
-        <v>1000823030</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B228" s="0">
-        <v>-2.589240550994873</v>
+        <v>-29.950138092041016</v>
       </c>
       <c r="C228" s="0">
-        <v>-44.239967346191406</v>
+        <v>-51.145957946777344</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>229</v>
@@ -5525,33 +5522,33 @@
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B229" s="0">
-        <v>-22.949626922607422</v>
+        <v>-5.3681573867797852</v>
       </c>
       <c r="C229" s="0">
-        <v>-43.727405548095703</v>
+        <v>-49.135231018066406</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>230</v>
       </c>
       <c r="E229" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F229" s="0">
-        <v>-1</v>
+        <v>1000842468</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B230" s="0">
-        <v>-29.950138092041016</v>
+        <v>-13.264640808105469</v>
       </c>
       <c r="C230" s="0">
-        <v>-51.145957946777344</v>
+        <v>-43.408172607421875</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>231</v>
@@ -5568,10 +5565,10 @@
         <v>1171</v>
       </c>
       <c r="B231" s="0">
-        <v>-15.65609073638916</v>
+        <v>-19.842317581176758</v>
       </c>
       <c r="C231" s="0">
-        <v>-56.112030029296875</v>
+        <v>-44.606845855712891</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>232</v>
@@ -5588,19 +5585,19 @@
         <v>1171</v>
       </c>
       <c r="B232" s="0">
-        <v>-5.3681573867797852</v>
+        <v>-15.65609073638916</v>
       </c>
       <c r="C232" s="0">
-        <v>-49.135231018066406</v>
+        <v>-56.112030029296875</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>233</v>
       </c>
       <c r="E232" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F232" s="0">
-        <v>1000842468</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233">
@@ -5608,10 +5605,10 @@
         <v>1171</v>
       </c>
       <c r="B233" s="0">
-        <v>-13.264640808105469</v>
+        <v>-8.1066904067993164</v>
       </c>
       <c r="C233" s="0">
-        <v>-43.408172607421875</v>
+        <v>-35.287250518798828</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>234</v>
@@ -5628,10 +5625,10 @@
         <v>1171</v>
       </c>
       <c r="B234" s="0">
-        <v>-19.842317581176758</v>
+        <v>-27.621854782104492</v>
       </c>
       <c r="C234" s="0">
-        <v>-44.606845855712891</v>
+        <v>-48.632465362548828</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>235</v>
@@ -5645,13 +5642,13 @@
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B235" s="0">
-        <v>-8.1066904067993164</v>
+        <v>-25.471818923950195</v>
       </c>
       <c r="C235" s="0">
-        <v>-35.287250518798828</v>
+        <v>-49.520271301269531</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>236</v>
@@ -5665,13 +5662,13 @@
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="B236" s="0">
-        <v>-25.471818923950195</v>
+        <v>-29.995925903320313</v>
       </c>
       <c r="C236" s="0">
-        <v>-49.520271301269531</v>
+        <v>-51.165164947509766</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>237</v>
@@ -5688,10 +5685,10 @@
         <v>1174</v>
       </c>
       <c r="B237" s="0">
-        <v>-29.995925903320313</v>
+        <v>-14.814672470092773</v>
       </c>
       <c r="C237" s="0">
-        <v>-51.165164947509766</v>
+        <v>-39.032848358154297</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>238</v>
@@ -5708,10 +5705,10 @@
         <v>1174</v>
       </c>
       <c r="B238" s="0">
-        <v>-14.814672470092773</v>
+        <v>-7.1464972496032715</v>
       </c>
       <c r="C238" s="0">
-        <v>-39.032848358154297</v>
+        <v>-34.947879791259766</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>239</v>
@@ -5725,13 +5722,13 @@
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B239" s="0">
-        <v>-7.1464972496032715</v>
+        <v>-2.667222261428833</v>
       </c>
       <c r="C239" s="0">
-        <v>-34.947879791259766</v>
+        <v>-56.773334503173828</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>240</v>
@@ -5748,10 +5745,10 @@
         <v>1175</v>
       </c>
       <c r="B240" s="0">
-        <v>-2.667222261428833</v>
+        <v>-3.7722716331481934</v>
       </c>
       <c r="C240" s="0">
-        <v>-56.773334503173828</v>
+        <v>-38.547691345214844</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>241</v>
@@ -5785,13 +5782,13 @@
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B242" s="0">
-        <v>-3.7722716331481934</v>
+        <v>-11.736307144165039</v>
       </c>
       <c r="C242" s="0">
-        <v>-38.547691345214844</v>
+        <v>-49.136486053466797</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>243</v>
@@ -5808,10 +5805,10 @@
         <v>1176</v>
       </c>
       <c r="B243" s="0">
-        <v>-11.736307144165039</v>
+        <v>-19.442510604858398</v>
       </c>
       <c r="C243" s="0">
-        <v>-49.136486053466797</v>
+        <v>-44.231071472167969</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>244</v>
@@ -5825,13 +5822,13 @@
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B244" s="0">
-        <v>-19.442510604858398</v>
+        <v>-12.079939842224121</v>
       </c>
       <c r="C244" s="0">
-        <v>-44.231071472167969</v>
+        <v>-45.007133483886719</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>245</v>
@@ -5848,10 +5845,10 @@
         <v>1177</v>
       </c>
       <c r="B245" s="0">
-        <v>-12.079939842224121</v>
+        <v>-5.908355712890625</v>
       </c>
       <c r="C245" s="0">
-        <v>-45.007133483886719</v>
+        <v>-35.248584747314453</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>246</v>
@@ -5868,10 +5865,10 @@
         <v>1177</v>
       </c>
       <c r="B246" s="0">
-        <v>-5.908355712890625</v>
+        <v>-23.487541198730469</v>
       </c>
       <c r="C246" s="0">
-        <v>-35.248584747314453</v>
+        <v>-46.923309326171875</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>247</v>
@@ -5885,22 +5882,22 @@
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B247" s="0">
-        <v>-23.487541198730469</v>
+        <v>-6.1196446418762207</v>
       </c>
       <c r="C247" s="0">
-        <v>-46.923309326171875</v>
+        <v>-50.001995086669922</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>248</v>
       </c>
       <c r="E247" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F247" s="0">
-        <v>-1</v>
+        <v>1000842506</v>
       </c>
     </row>
     <row r="248">
@@ -5908,30 +5905,30 @@
         <v>1178</v>
       </c>
       <c r="B248" s="0">
-        <v>-6.1196446418762207</v>
+        <v>-19.55821418762207</v>
       </c>
       <c r="C248" s="0">
-        <v>-50.001995086669922</v>
+        <v>-44.048511505126953</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>249</v>
       </c>
       <c r="E248" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F248" s="0">
-        <v>1000842506</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B249" s="0">
-        <v>-19.55821418762207</v>
+        <v>-29.789979934692383</v>
       </c>
       <c r="C249" s="0">
-        <v>-44.048511505126953</v>
+        <v>-51.830776214599609</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>250</v>
@@ -5945,13 +5942,13 @@
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B250" s="0">
-        <v>-29.789979934692383</v>
+        <v>-22.715394973754883</v>
       </c>
       <c r="C250" s="0">
-        <v>-51.830776214599609</v>
+        <v>-42.857418060302734</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>251</v>
@@ -5965,13 +5962,13 @@
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B251" s="0">
-        <v>-22.715394973754883</v>
+        <v>-18.203235626220703</v>
       </c>
       <c r="C251" s="0">
-        <v>-42.857418060302734</v>
+        <v>-45.457073211669922</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>252</v>
@@ -5988,10 +5985,10 @@
         <v>1181</v>
       </c>
       <c r="B252" s="0">
-        <v>-18.203235626220703</v>
+        <v>-29.998178482055664</v>
       </c>
       <c r="C252" s="0">
-        <v>-45.457073211669922</v>
+        <v>-50.975543975830078</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>253</v>
@@ -6005,13 +6002,13 @@
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B253" s="0">
-        <v>-29.998178482055664</v>
+        <v>-22.967174530029297</v>
       </c>
       <c r="C253" s="0">
-        <v>-50.975543975830078</v>
+        <v>-42.890945434570313</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>254</v>
@@ -6025,13 +6022,13 @@
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B254" s="0">
-        <v>-22.967174530029297</v>
+        <v>-22.453990936279297</v>
       </c>
       <c r="C254" s="0">
-        <v>-42.890945434570313</v>
+        <v>-43.840301513671875</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>255</v>
@@ -6045,13 +6042,13 @@
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B255" s="0">
-        <v>-22.453990936279297</v>
+        <v>-9.3313283920288086</v>
       </c>
       <c r="C255" s="0">
-        <v>-43.840301513671875</v>
+        <v>-54.965038299560547</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>256</v>
@@ -6068,19 +6065,19 @@
         <v>1185</v>
       </c>
       <c r="B256" s="0">
-        <v>-9.3313283920288086</v>
+        <v>-26.222261428833008</v>
       </c>
       <c r="C256" s="0">
-        <v>-54.965038299560547</v>
+        <v>-48.798046112060547</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>257</v>
       </c>
       <c r="E256" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F256" s="0">
-        <v>-1</v>
+        <v>1000822831</v>
       </c>
     </row>
     <row r="257">
@@ -6088,30 +6085,30 @@
         <v>1185</v>
       </c>
       <c r="B257" s="0">
-        <v>-26.222261428833008</v>
+        <v>-9.5098943710327148</v>
       </c>
       <c r="C257" s="0">
-        <v>-48.798046112060547</v>
+        <v>-35.786872863769531</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>258</v>
       </c>
       <c r="E257" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F257" s="0">
-        <v>1000822831</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B258" s="0">
-        <v>-9.5098943710327148</v>
+        <v>-23.507102966308594</v>
       </c>
       <c r="C258" s="0">
-        <v>-35.786872863769531</v>
+        <v>-47.378208160400391</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>259</v>
@@ -6125,13 +6122,13 @@
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B259" s="0">
-        <v>-23.507102966308594</v>
+        <v>-23.233165740966797</v>
       </c>
       <c r="C259" s="0">
-        <v>-47.378208160400391</v>
+        <v>-45.860000610351563</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>260</v>
@@ -6148,10 +6145,10 @@
         <v>1188</v>
       </c>
       <c r="B260" s="0">
-        <v>-23.233165740966797</v>
+        <v>-10.981925964355469</v>
       </c>
       <c r="C260" s="0">
-        <v>-45.860000610351563</v>
+        <v>-37.077323913574219</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>261</v>
@@ -6165,13 +6162,13 @@
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B261" s="0">
-        <v>-10.981925964355469</v>
+        <v>-21.142839431762695</v>
       </c>
       <c r="C261" s="0">
-        <v>-37.077323913574219</v>
+        <v>-47.770347595214844</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>262</v>
@@ -6185,13 +6182,13 @@
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B262" s="0">
-        <v>-21.142839431762695</v>
+        <v>-21.984561920166016</v>
       </c>
       <c r="C262" s="0">
-        <v>-47.770347595214844</v>
+        <v>-47.344505310058594</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>263</v>
@@ -6208,10 +6205,10 @@
         <v>1192</v>
       </c>
       <c r="B263" s="0">
-        <v>-21.984561920166016</v>
+        <v>-3.0400304794311523</v>
       </c>
       <c r="C263" s="0">
-        <v>-47.344505310058594</v>
+        <v>-60.054737091064453</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>264</v>
@@ -6225,22 +6222,22 @@
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B264" s="0">
-        <v>-3.0400304794311523</v>
+        <v>-22.344448089599609</v>
       </c>
       <c r="C264" s="0">
-        <v>-60.054737091064453</v>
+        <v>-41.769001007080078</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>265</v>
       </c>
       <c r="E264" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F264" s="0">
-        <v>-1</v>
+        <v>1000822904</v>
       </c>
     </row>
     <row r="265">
@@ -6248,19 +6245,19 @@
         <v>1193</v>
       </c>
       <c r="B265" s="0">
-        <v>-22.344448089599609</v>
+        <v>-16.640832901000977</v>
       </c>
       <c r="C265" s="0">
-        <v>-41.769001007080078</v>
+        <v>-49.211112976074219</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>266</v>
       </c>
       <c r="E265" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F265" s="0">
-        <v>1000822904</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
@@ -6268,10 +6265,10 @@
         <v>1193</v>
       </c>
       <c r="B266" s="0">
-        <v>-16.640832901000977</v>
+        <v>-5.7718110084533691</v>
       </c>
       <c r="C266" s="0">
-        <v>-49.211112976074219</v>
+        <v>-35.368679046630859</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>267</v>
@@ -6285,22 +6282,22 @@
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B267" s="0">
-        <v>-5.7718110084533691</v>
+        <v>-18.876609802246094</v>
       </c>
       <c r="C267" s="0">
-        <v>-35.368679046630859</v>
+        <v>-48.221298217773438</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>268</v>
       </c>
       <c r="E267" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F267" s="0">
-        <v>-1</v>
+        <v>1000823692</v>
       </c>
     </row>
     <row r="268">
@@ -6308,30 +6305,30 @@
         <v>1195</v>
       </c>
       <c r="B268" s="0">
-        <v>-18.876609802246094</v>
+        <v>-27.135692596435547</v>
       </c>
       <c r="C268" s="0">
-        <v>-48.221298217773438</v>
+        <v>-52.662967681884766</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>269</v>
       </c>
       <c r="E268" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F268" s="0">
-        <v>1000823692</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B269" s="0">
-        <v>-27.135692596435547</v>
+        <v>-22.951358795166016</v>
       </c>
       <c r="C269" s="0">
-        <v>-52.662967681884766</v>
+        <v>-46.569900512695313</v>
       </c>
       <c r="D269" s="0" t="s">
         <v>270</v>
@@ -6345,13 +6342,13 @@
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B270" s="0">
-        <v>-22.951358795166016</v>
+        <v>-9.8759803771972656</v>
       </c>
       <c r="C270" s="0">
-        <v>-46.569900512695313</v>
+        <v>-67.905380249023438</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>271</v>
@@ -6368,39 +6365,39 @@
         <v>1198</v>
       </c>
       <c r="B271" s="0">
-        <v>-9.8759803771972656</v>
+        <v>-20.260166168212891</v>
       </c>
       <c r="C271" s="0">
-        <v>-67.905380249023438</v>
+        <v>-40.284999847412109</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>272</v>
       </c>
       <c r="E271" s="0">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="F271" s="0">
-        <v>-1</v>
+        <v>1000823781</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B272" s="0">
-        <v>-20.260166168212891</v>
+        <v>-25.53203010559082</v>
       </c>
       <c r="C272" s="0">
-        <v>-40.284999847412109</v>
+        <v>-49.16766357421875</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>273</v>
       </c>
       <c r="E272" s="0">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="F272" s="0">
-        <v>1000823781</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
@@ -6408,10 +6405,10 @@
         <v>1199</v>
       </c>
       <c r="B273" s="0">
-        <v>-25.53203010559082</v>
+        <v>-12.906418800354004</v>
       </c>
       <c r="C273" s="0">
-        <v>-49.16766357421875</v>
+        <v>-38.321365356445313</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>274</v>
@@ -6425,13 +6422,13 @@
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B274" s="0">
-        <v>-12.906418800354004</v>
+        <v>-0.15027777850627899</v>
       </c>
       <c r="C274" s="0">
-        <v>-38.321365356445313</v>
+        <v>-66.990570068359375</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>275</v>
@@ -6445,13 +6442,13 @@
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B275" s="0">
-        <v>-0.15027777850627899</v>
+        <v>-2.3714849948883057</v>
       </c>
       <c r="C275" s="0">
-        <v>-66.990570068359375</v>
+        <v>-44.397098541259766</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>276</v>
@@ -6468,10 +6465,10 @@
         <v>1201</v>
       </c>
       <c r="B276" s="0">
-        <v>-2.3714849948883057</v>
+        <v>-23.89097785949707</v>
       </c>
       <c r="C276" s="0">
-        <v>-44.397098541259766</v>
+        <v>-46.5281982421875</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>277</v>
@@ -6485,13 +6482,13 @@
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B277" s="0">
-        <v>-23.89097785949707</v>
+        <v>-16.245367050170898</v>
       </c>
       <c r="C277" s="0">
-        <v>-46.5281982421875</v>
+        <v>-48.979087829589844</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>278</v>
@@ -6505,13 +6502,13 @@
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B278" s="0">
-        <v>-16.245367050170898</v>
+        <v>-23.627464294433594</v>
       </c>
       <c r="C278" s="0">
-        <v>-48.979087829589844</v>
+        <v>-46.654636383056641</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>279</v>
@@ -6528,10 +6525,10 @@
         <v>1203</v>
       </c>
       <c r="B279" s="0">
-        <v>-23.627464294433594</v>
+        <v>-8.1365804672241211</v>
       </c>
       <c r="C279" s="0">
-        <v>-46.654636383056641</v>
+        <v>-34.927299499511719</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>280</v>
@@ -6545,13 +6542,13 @@
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B280" s="0">
-        <v>-8.1365804672241211</v>
+        <v>-19.689046859741211</v>
       </c>
       <c r="C280" s="0">
-        <v>-34.927299499511719</v>
+        <v>-47.060573577880859</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>281</v>
@@ -6565,13 +6562,13 @@
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="B281" s="0">
-        <v>-19.689046859741211</v>
+        <v>-1.3843555450439453</v>
       </c>
       <c r="C281" s="0">
-        <v>-47.060573577880859</v>
+        <v>-48.478565216064453</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>282</v>
@@ -6585,13 +6582,13 @@
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B282" s="0">
-        <v>-1.3843555450439453</v>
+        <v>-4.195000171661377</v>
       </c>
       <c r="C282" s="0">
-        <v>-48.478565216064453</v>
+        <v>-69.9405517578125</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>283</v>
@@ -6608,10 +6605,10 @@
         <v>1209</v>
       </c>
       <c r="B283" s="0">
-        <v>-4.195000171661377</v>
+        <v>-15.865013122558594</v>
       </c>
       <c r="C283" s="0">
-        <v>-69.9405517578125</v>
+        <v>-47.900188446044922</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>284</v>
@@ -6625,13 +6622,13 @@
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B284" s="0">
-        <v>-15.865013122558594</v>
+        <v>4.6929998397827148</v>
       </c>
       <c r="C284" s="0">
-        <v>-47.900188446044922</v>
+        <v>-61.028831481933594</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>285</v>
@@ -6648,10 +6645,10 @@
         <v>1211</v>
       </c>
       <c r="B285" s="0">
-        <v>4.6929998397827148</v>
+        <v>-25.778656005859375</v>
       </c>
       <c r="C285" s="0">
-        <v>-61.028831481933594</v>
+        <v>-49.763240814208984</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>286</v>
@@ -6668,10 +6665,10 @@
         <v>1211</v>
       </c>
       <c r="B286" s="0">
-        <v>-25.778656005859375</v>
+        <v>-19.835769653320313</v>
       </c>
       <c r="C286" s="0">
-        <v>-49.763240814208984</v>
+        <v>-44.003562927246094</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>287</v>
@@ -6680,26 +6677,6 @@
         <v>-1</v>
       </c>
       <c r="F286" s="0">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="0">
-        <v>1211</v>
-      </c>
-      <c r="B287" s="0">
-        <v>-19.835769653320313</v>
-      </c>
-      <c r="C287" s="0">
-        <v>-44.003562927246094</v>
-      </c>
-      <c r="D287" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="E287" s="0">
-        <v>-1</v>
-      </c>
-      <c r="F287" s="0">
         <v>-1</v>
       </c>
     </row>
@@ -6907,13 +6884,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70E133BB-F0DC-4C1D-903F-F8C63D96BF8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E72F8DE-CB3B-443C-ADF4-A1E680601472}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90DE3BFE-9B68-4591-8917-FED45AB7A5BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E97C5DD4-E561-4FED-8AC7-A72690B7E1CD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{205FDE97-F65C-41E4-A609-92C110B4CB96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97120955-B8B6-4809-841C-D9F1A328D345}"/>
 </file>